--- a/cargohose_herren/2024_07/cargohose_herren_2024_07_rawd.xlsx
+++ b/cargohose_herren/2024_07/cargohose_herren_2024_07_rawd.xlsx
@@ -4,14 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27015" windowHeight="12960"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="goods" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">goods!$A$1:$P$601</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11016" uniqueCount="2194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11216" uniqueCount="2230">
   <si>
     <t>ym</t>
   </si>
@@ -6083,12 +6080,18 @@
     <t>BSAT Regular Fit Combat Cargo Hose, Maskuline Streetwear in Schwarz mit Verstellbarer Passform und hohem, Cargohose für Herren &amp; Jungen</t>
   </si>
   <si>
+    <t>30.39</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/sspa/click?ie=UTF8&amp;spc=MTozOTk4ODI4OTk0MDg1MTg1OjE3MjIyMTE2NDk6c3BfYXRmOjMwMDAyNDY5MTQ5NDYzMjo6MDo6&amp;url=%2FElegancity-Cargohose-Jogginghose-Bundgummi-Elastische%2Fdp%2FB0BZ3BR9D5%2Fref%3Dsr_1_2_sspa%3F__mk_de_DE%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.XbMSlPS9EoEbDQQwlXZ80vMQTTVz_-aJrk5Yk2Yb54OA7w-mWGVztxmVKqhHuOF-5pG11rFLy4GFrkzZHXyEAznhowkWDrYMJVZaKLPT4LZurtM1Ot1wOvMfsu1kBoQy2xz1AeXNr1bGCzVa-OMIPT0dxHHfJ8felM1jyzVKohIL4sidRifo0uW_cbuh6WI1NeKRBiAaB-VceUG-xaCar_PNnME1ZNrlDoZb3IzpSNAd-BkXRay9CtkgXHMgOd6ktw-Dg47DxhARDhyB6bxjSQ-eRaFkcPh0oE9azQItB-Y.GkVcE0ZYt_6XN1JGZrQkOlCo5u3MbIOTqsz2W4N7tCI%26dib_tag%3Dse%26keywords%3Dcargohose%2Bherren%26qid%3D1722211649%26sr%3D8-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
     <t>https://www.amazon.de/sspa/click?ie=UTF8&amp;spc=MTozOTk4ODI4OTk0MDg1MTg1OjE3MjIyMTE2NDk6c3BfYXRmOjMwMDE4MjI1MDIyMjczMjo6MDo6&amp;url=%2FVthereal-Cargohose-Baumwolle-Outdoorhose-Arbeitshosen%2Fdp%2FB0C464TZNR%2Fref%3Dsr_1_3_sspa%3F__mk_de_DE%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.XbMSlPS9EoEbDQQwlXZ80vMQTTVz_-aJrk5Yk2Yb54OA7w-mWGVztxmVKqhHuOF-5pG11rFLy4GFrkzZHXyEAznhowkWDrYMJVZaKLPT4LZurtM1Ot1wOvMfsu1kBoQy2xz1AeXNr1bGCzVa-OMIPT0dxHHfJ8felM1jyzVKohIL4sidRifo0uW_cbuh6WI1NeKRBiAaB-VceUG-xaCar_PNnME1ZNrlDoZb3IzpSNAd-BkXRay9CtkgXHMgOd6ktw-Dg47DxhARDhyB6bxjSQ-eRaFkcPh0oE9azQItB-Y.GkVcE0ZYt_6XN1JGZrQkOlCo5u3MbIOTqsz2W4N7tCI%26dib_tag%3Dse%26keywords%3Dcargohose%2Bherren%26qid%3D1722211649%26sr%3D8-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
+    <t>30.58</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/sspa/click?ie=UTF8&amp;spc=MTozOTk4ODI4OTk0MDg1MTg1OjE3MjIyMTE2NDk6c3BfYXRmOjMwMDE4ODgzMDg4NzEzMjo6MDo6&amp;url=%2FJMIERR-Jogginghose-Freizeithose-Elastische-Sweatpants%2Fdp%2FB0BF9XYH96%2Fref%3Dsr_1_4_sspa%3F__mk_de_DE%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.XbMSlPS9EoEbDQQwlXZ80vMQTTVz_-aJrk5Yk2Yb54OA7w-mWGVztxmVKqhHuOF-5pG11rFLy4GFrkzZHXyEAznhowkWDrYMJVZaKLPT4LZurtM1Ot1wOvMfsu1kBoQy2xz1AeXNr1bGCzVa-OMIPT0dxHHfJ8felM1jyzVKohIL4sidRifo0uW_cbuh6WI1NeKRBiAaB-VceUG-xaCar_PNnME1ZNrlDoZb3IzpSNAd-BkXRay9CtkgXHMgOd6ktw-Dg47DxhARDhyB6bxjSQ-eRaFkcPh0oE9azQItB-Y.GkVcE0ZYt_6XN1JGZrQkOlCo5u3MbIOTqsz2W4N7tCI%26dib_tag%3Dse%26keywords%3Dcargohose%2Bherren%26qid%3D1722211649%26sr%3D8-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
   </si>
   <si>
@@ -6107,6 +6110,9 @@
     <t>https://www.amazon.de/REPUBLIX-Herren-Jogger-Cargo-Dunkelgrau/dp/B0C3BF7VC4/ref=sr_1_9?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.XbMSlPS9EoEbDQQwlXZ80vMQTTVz_-aJrk5Yk2Yb54OA7w-mWGVztxmVKqhHuOF-5pG11rFLy4GFrkzZHXyEAznhowkWDrYMJVZaKLPT4LZurtM1Ot1wOvMfsu1kBoQy2xz1AeXNr1bGCzVa-OMIPT0dxHHfJ8felM1jyzVKohIL4sidRifo0uW_cbuh6WI1NeKRBiAaB-VceUG-xaCar_PNnME1ZNrlDoZb3IzpSNAd-BkXRay9CtkgXHMgOd6ktw-Dg47DxhARDhyB6bxjSQ-eRaFkcPh0oE9azQItB-Y.GkVcE0ZYt_6XN1JGZrQkOlCo5u3MbIOTqsz2W4N7tCI&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722211649&amp;sr=8-9</t>
   </si>
   <si>
+    <t>40.39</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/JACK-JONES-JPSTACE-JJTUCKER-Cargohose/dp/B09P37XM83/ref=sr_1_10_mod_primary_new?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.XbMSlPS9EoEbDQQwlXZ80vMQTTVz_-aJrk5Yk2Yb54OA7w-mWGVztxmVKqhHuOF-5pG11rFLy4GFrkzZHXyEAznhowkWDrYMJVZaKLPT4LZurtM1Ot1wOvMfsu1kBoQy2xz1AeXNr1bGCzVa-OMIPT0dxHHfJ8felM1jyzVKohIL4sidRifo0uW_cbuh6WI1NeKRBiAaB-VceUG-xaCar_PNnME1ZNrlDoZb3IzpSNAd-BkXRay9CtkgXHMgOd6ktw-Dg47DxhARDhyB6bxjSQ-eRaFkcPh0oE9azQItB-Y.GkVcE0ZYt_6XN1JGZrQkOlCo5u3MbIOTqsz2W4N7tCI&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722211649&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=8-10</t>
   </si>
   <si>
@@ -6149,6 +6155,9 @@
     <t>B0D66FH1CR</t>
   </si>
   <si>
+    <t>29.98</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/sspa/click?ie=UTF8&amp;spc=MTozOTk4ODI4OTk0MDg1MTg1OjE3MjIyMTE2NDk6c3BfbXRmOjMwMDI2NDk2Mzc0MzQzMjo6MDo6&amp;url=%2FJMIERR-Herren-Hosen-Stretch-Jogginghose-Taschen-Schwarz%2Fdp%2FB0D66FH1CR%2Fref%3Dsr_1_13_sspa%3F__mk_de_DE%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.XbMSlPS9EoEbDQQwlXZ80vMQTTVz_-aJrk5Yk2Yb54OA7w-mWGVztxmVKqhHuOF-5pG11rFLy4GFrkzZHXyEAznhowkWDrYMJVZaKLPT4LZurtM1Ot1wOvMfsu1kBoQy2xz1AeXNr1bGCzVa-OMIPT0dxHHfJ8felM1jyzVKohIL4sidRifo0uW_cbuh6WI1NeKRBiAaB-VceUG-xaCar_PNnME1ZNrlDoZb3IzpSNAd-BkXRay9CtkgXHMgOd6ktw-Dg47DxhARDhyB6bxjSQ-eRaFkcPh0oE9azQItB-Y.GkVcE0ZYt_6XN1JGZrQkOlCo5u3MbIOTqsz2W4N7tCI%26dib_tag%3Dse%26keywords%3Dcargohose%2Bherren%26qid%3D1722211649%26sr%3D8-13-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
@@ -6176,6 +6185,9 @@
     <t>B0BLKTF1NL</t>
   </si>
   <si>
+    <t>33.90</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/sspa/click?ie=UTF8&amp;spc=MTozOTk4ODI4OTk0MDg1MTg1OjE3MjIyMTE2NDk6c3BfbXRmOjIwMTIyMzEwNDY3MDk4OjowOjo&amp;url=%2FCargohose-Baumwolle-Freizeithose-stylisch-Numeric_33%2Fdp%2FB0BLKTF1NL%2Fref%3Dsr_1_14_sspa%3F__mk_de_DE%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.XbMSlPS9EoEbDQQwlXZ80vMQTTVz_-aJrk5Yk2Yb54OA7w-mWGVztxmVKqhHuOF-5pG11rFLy4GFrkzZHXyEAznhowkWDrYMJVZaKLPT4LZurtM1Ot1wOvMfsu1kBoQy2xz1AeXNr1bGCzVa-OMIPT0dxHHfJ8felM1jyzVKohIL4sidRifo0uW_cbuh6WI1NeKRBiAaB-VceUG-xaCar_PNnME1ZNrlDoZb3IzpSNAd-BkXRay9CtkgXHMgOd6ktw-Dg47DxhARDhyB6bxjSQ-eRaFkcPh0oE9azQItB-Y.GkVcE0ZYt_6XN1JGZrQkOlCo5u3MbIOTqsz2W4N7tCI%26dib_tag%3Dse%26keywords%3Dcargohose%2Bherren%26qid%3D1722211649%26sr%3D8-14-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
@@ -6212,6 +6224,9 @@
     <t>https://www.amazon.de/Timezone-Herren-Cargohose-Light-Green/dp/B09L5128RG/ref=sr_1_18?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.XbMSlPS9EoEbDQQwlXZ80vMQTTVz_-aJrk5Yk2Yb54OA7w-mWGVztxmVKqhHuOF-5pG11rFLy4GFrkzZHXyEAznhowkWDrYMJVZaKLPT4LZurtM1Ot1wOvMfsu1kBoQy2xz1AeXNr1bGCzVa-OMIPT0dxHHfJ8felM1jyzVKohIL4sidRifo0uW_cbuh6WI1NeKRBiAaB-VceUG-xaCar_PNnME1ZNrlDoZb3IzpSNAd-BkXRay9CtkgXHMgOd6ktw-Dg47DxhARDhyB6bxjSQ-eRaFkcPh0oE9azQItB-Y.GkVcE0ZYt_6XN1JGZrQkOlCo5u3MbIOTqsz2W4N7tCI&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722211649&amp;sr=8-18</t>
   </si>
   <si>
+    <t>33.99</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/sspa/click?ie=UTF8&amp;spc=MTozOTk4ODI4OTk0MDg1MTg1OjE3MjIyMTE2NDk6c3BfbXRmOjMwMDE3OTAxODQ2NDgzMjo6MDo6&amp;url=%2FCindeyar-Herren-Sporthose-Freizeithose-Schwarz%2Fdp%2FB08G1CMNX2%2Fref%3Dsr_1_19_sspa%3F__mk_de_DE%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dib%3DeyJ2IjoiMSJ9.XbMSlPS9EoEbDQQwlXZ80vMQTTVz_-aJrk5Yk2Yb54OA7w-mWGVztxmVKqhHuOF-5pG11rFLy4GFrkzZHXyEAznhowkWDrYMJVZaKLPT4LZurtM1Ot1wOvMfsu1kBoQy2xz1AeXNr1bGCzVa-OMIPT0dxHHfJ8felM1jyzVKohIL4sidRifo0uW_cbuh6WI1NeKRBiAaB-VceUG-xaCar_PNnME1ZNrlDoZb3IzpSNAd-BkXRay9CtkgXHMgOd6ktw-Dg47DxhARDhyB6bxjSQ-eRaFkcPh0oE9azQItB-Y.GkVcE0ZYt_6XN1JGZrQkOlCo5u3MbIOTqsz2W4N7tCI%26dib_tag%3Dse%26keywords%3Dcargohose%2Bherren%26qid%3D1722211649%26sr%3D8-19-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
   </si>
   <si>
@@ -6338,6 +6353,9 @@
     <t>B09Y7GV1DL</t>
   </si>
   <si>
+    <t>50.25</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/Cargo-Hose-f%C3%BCr-Herren-Jg3030-new-olive-Mittel/dp/B09Y7GV1DL/ref=sr_1_2?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.BlT19iTq0KxjQYne5kBvupguFWwXyXlc9DtP4x7U0y7U_EcZIptO3TepB-wdQqRE50TAPh2xA2Xec-sH6xTgP2M6q0SDN6cHgyaZusNo01Rlv5QjWiFdcr-p5VPXysA89tJUtHQtjUqcDQpd6GZX_5LLxxCc2RG5rDsDafxlTA9YBLmCUaEtEwWXXc3XQIKM8YVyteyikpGD_M8hg_UPw8MhTepykp4A3zM0NAex-_aCQXWFEVNVM-GKzjjUswLab0o9kIbPs-wKhCfI2KAosxU-WR-KF-yei1QBJg4zeLI.-pls1ofbl1V38cgKicrfxvww11Uxp5hHJETYWf8Uxb0&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212267&amp;sr=8-2</t>
   </si>
   <si>
@@ -6359,10 +6377,16 @@
     <t>https://www.amazon.de/Wrangler-Herren-Gr%C3%B6%C3%9Fe-British-Khaki/dp/B00XKYQGCO/ref=sr_1_4?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.BlT19iTq0KxjQYne5kBvupguFWwXyXlc9DtP4x7U0y7U_EcZIptO3TepB-wdQqRE50TAPh2xA2Xec-sH6xTgP2M6q0SDN6cHgyaZusNo01Rlv5QjWiFdcr-p5VPXysA89tJUtHQtjUqcDQpd6GZX_5LLxxCc2RG5rDsDafxlTA9YBLmCUaEtEwWXXc3XQIKM8YVyteyikpGD_M8hg_UPw8MhTepykp4A3zM0NAex-_aCQXWFEVNVM-GKzjjUswLab0o9kIbPs-wKhCfI2KAosxU-WR-KF-yei1QBJg4zeLI.-pls1ofbl1V38cgKicrfxvww11Uxp5hHJETYWf8Uxb0&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212267&amp;sr=8-4</t>
   </si>
   <si>
+    <t>60.86</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/Pro-Club-Herren-Cargohose-schwerem/dp/B00P68PXNK/ref=sr_1_5?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.BlT19iTq0KxjQYne5kBvupguFWwXyXlc9DtP4x7U0y7U_EcZIptO3TepB-wdQqRE50TAPh2xA2Xec-sH6xTgP2M6q0SDN6cHgyaZusNo01Rlv5QjWiFdcr-p5VPXysA89tJUtHQtjUqcDQpd6GZX_5LLxxCc2RG5rDsDafxlTA9YBLmCUaEtEwWXXc3XQIKM8YVyteyikpGD_M8hg_UPw8MhTepykp4A3zM0NAex-_aCQXWFEVNVM-GKzjjUswLab0o9kIbPs-wKhCfI2KAosxU-WR-KF-yei1QBJg4zeLI.-pls1ofbl1V38cgKicrfxvww11Uxp5hHJETYWf8Uxb0&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212267&amp;sr=8-5</t>
   </si>
   <si>
     <t>https://www.amazon.de/Dickies-Dynamix-DK110-Herren-Cargohose-Rei%C3%9Fverschluss/dp/B07FKWV73S/ref=sr_1_6?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.BlT19iTq0KxjQYne5kBvupguFWwXyXlc9DtP4x7U0y7U_EcZIptO3TepB-wdQqRE50TAPh2xA2Xec-sH6xTgP2M6q0SDN6cHgyaZusNo01Rlv5QjWiFdcr-p5VPXysA89tJUtHQtjUqcDQpd6GZX_5LLxxCc2RG5rDsDafxlTA9YBLmCUaEtEwWXXc3XQIKM8YVyteyikpGD_M8hg_UPw8MhTepykp4A3zM0NAex-_aCQXWFEVNVM-GKzjjUswLab0o9kIbPs-wKhCfI2KAosxU-WR-KF-yei1QBJg4zeLI.-pls1ofbl1V38cgKicrfxvww11Uxp5hHJETYWf8Uxb0&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212267&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>107.30</t>
   </si>
   <si>
     <t>https://www.amazon.de/Replay-Herren-Cargo-Jeans-Hypercargo/dp/B0C5JDV5HC/ref=sr_1_7?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.BlT19iTq0KxjQYne5kBvupguFWwXyXlc9DtP4x7U0y7U_EcZIptO3TepB-wdQqRE50TAPh2xA2Xec-sH6xTgP2M6q0SDN6cHgyaZusNo01Rlv5QjWiFdcr-p5VPXysA89tJUtHQtjUqcDQpd6GZX_5LLxxCc2RG5rDsDafxlTA9YBLmCUaEtEwWXXc3XQIKM8YVyteyikpGD_M8hg_UPw8MhTepykp4A3zM0NAex-_aCQXWFEVNVM-GKzjjUswLab0o9kIbPs-wKhCfI2KAosxU-WR-KF-yei1QBJg4zeLI.-pls1ofbl1V38cgKicrfxvww11Uxp5hHJETYWf8Uxb0&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212267&amp;sr=8-7</t>
@@ -6435,6 +6459,9 @@
     <t>https://www.amazon.de/Lee-Performance-Extreme-Comfort-Unterhose/dp/B07RBG6NC7/ref=sr_1_17?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.BlT19iTq0KxjQYne5kBvupguFWwXyXlc9DtP4x7U0y7U_EcZIptO3TepB-wdQqRE50TAPh2xA2Xec-sH6xTgP2M6q0SDN6cHgyaZusNo01Rlv5QjWiFdcr-p5VPXysA89tJUtHQtjUqcDQpd6GZX_5LLxxCc2RG5rDsDafxlTA9YBLmCUaEtEwWXXc3XQIKM8YVyteyikpGD_M8hg_UPw8MhTepykp4A3zM0NAex-_aCQXWFEVNVM-GKzjjUswLab0o9kIbPs-wKhCfI2KAosxU-WR-KF-yei1QBJg4zeLI.-pls1ofbl1V38cgKicrfxvww11Uxp5hHJETYWf8Uxb0&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212267&amp;sr=8-17</t>
   </si>
   <si>
+    <t>86.13</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/Aggressor-Flex-Taktische-Baumwolle-Cargotaschen/dp/B0847MS8TH/ref=sr_1_18?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.BlT19iTq0KxjQYne5kBvupguFWwXyXlc9DtP4x7U0y7U_EcZIptO3TepB-wdQqRE50TAPh2xA2Xec-sH6xTgP2M6q0SDN6cHgyaZusNo01Rlv5QjWiFdcr-p5VPXysA89tJUtHQtjUqcDQpd6GZX_5LLxxCc2RG5rDsDafxlTA9YBLmCUaEtEwWXXc3XQIKM8YVyteyikpGD_M8hg_UPw8MhTepykp4A3zM0NAex-_aCQXWFEVNVM-GKzjjUswLab0o9kIbPs-wKhCfI2KAosxU-WR-KF-yei1QBJg4zeLI.-pls1ofbl1V38cgKicrfxvww11Uxp5hHJETYWf8Uxb0&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212267&amp;sr=8-18</t>
   </si>
   <si>
@@ -6447,6 +6474,9 @@
     <t>B0C8T6XF2N</t>
   </si>
   <si>
+    <t>62.99</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/Matchstick-Herren-Cargohose-Military-Outdoor/dp/B0C8T6XF2N/ref=sr_1_1?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.cal12Hw39RiSptaBE4OLN7UJAUCT_BhXRFqsO6eGklfo04QwVLxVGeFpF_KtfU5BXdE8I-PoUcBrgO_lo_x_uVW4ccnRna39iI2qTbrPDRk1P6S_vfjtxguLRMM_g223hyrp85yFe6zUe5rdhk3GvNSBG4NSzfXf55XmMTZIhXvQ_GaSPXkmtQ2WaN_PoMiRS7nK3EpdhUObm4zKZVjj9EPdyj4PbU_wwQydX9A3qtlDwYAluL2h8f2ZGJOAH92SGpGHNXJN0Po6nPX5FGQZVAbDTTw3lOjzDUm_PKkXC6Q.ulYiU00CHGkmXbiV5E_HMCrRCv_3mZ7djeEttlT8W-c&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212567&amp;sr=8-1</t>
   </si>
   <si>
@@ -6502,6 +6532,9 @@
   </si>
   <si>
     <t>B0B6VVKCVJ</t>
+  </si>
+  <si>
+    <t>22.55</t>
   </si>
   <si>
     <t>https://www.amazon.de/AdBFJAF-Cargohose-Overalls-Bedruckte-Hosentasche/dp/B0B6VVKCVJ/ref=sr_1_3?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.cal12Hw39RiSptaBE4OLN7UJAUCT_BhXRFqsO6eGklfo04QwVLxVGeFpF_KtfU5BXdE8I-PoUcBrgO_lo_x_uVW4ccnRna39iI2qTbrPDRk1P6S_vfjtxguLRMM_g223hyrp85yFe6zUe5rdhk3GvNSBG4NSzfXf55XmMTZIhXvQ_GaSPXkmtQ2WaN_PoMiRS7nK3EpdhUObm4zKZVjj9EPdyj4PbU_wwQydX9A3qtlDwYAluL2h8f2ZGJOAH92SGpGHNXJN0Po6nPX5FGQZVAbDTTw3lOjzDUm_PKkXC6Q.ulYiU00CHGkmXbiV5E_HMCrRCv_3mZ7djeEttlT8W-c&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212567&amp;sr=8-3</t>
@@ -6549,6 +6582,9 @@
     <t>B093LBZJTV</t>
   </si>
   <si>
+    <t>38.09</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/Kinghua-Herren-Cargohose-Passform-elastischer-Baumwoll-Twill/dp/B093LBZJTV/ref=sr_1_4?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.cal12Hw39RiSptaBE4OLN7UJAUCT_BhXRFqsO6eGklfo04QwVLxVGeFpF_KtfU5BXdE8I-PoUcBrgO_lo_x_uVW4ccnRna39iI2qTbrPDRk1P6S_vfjtxguLRMM_g223hyrp85yFe6zUe5rdhk3GvNSBG4NSzfXf55XmMTZIhXvQ_GaSPXkmtQ2WaN_PoMiRS7nK3EpdhUObm4zKZVjj9EPdyj4PbU_wwQydX9A3qtlDwYAluL2h8f2ZGJOAH92SGpGHNXJN0Po6nPX5FGQZVAbDTTw3lOjzDUm_PKkXC6Q.ulYiU00CHGkmXbiV5E_HMCrRCv_3mZ7djeEttlT8W-c&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212567&amp;sr=8-4</t>
   </si>
   <si>
@@ -6576,6 +6612,9 @@
     <t>B0DBCZL8JR</t>
   </si>
   <si>
+    <t>9.99</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/YAOBAOLE-Cargohose-Herren-Arbeitshose-Dunkelgrau/dp/B0DBCZL8JR/ref=sr_1_5?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.cal12Hw39RiSptaBE4OLN7UJAUCT_BhXRFqsO6eGklfo04QwVLxVGeFpF_KtfU5BXdE8I-PoUcBrgO_lo_x_uVW4ccnRna39iI2qTbrPDRk1P6S_vfjtxguLRMM_g223hyrp85yFe6zUe5rdhk3GvNSBG4NSzfXf55XmMTZIhXvQ_GaSPXkmtQ2WaN_PoMiRS7nK3EpdhUObm4zKZVjj9EPdyj4PbU_wwQydX9A3qtlDwYAluL2h8f2ZGJOAH92SGpGHNXJN0Po6nPX5FGQZVAbDTTw3lOjzDUm_PKkXC6Q.ulYiU00CHGkmXbiV5E_HMCrRCv_3mZ7djeEttlT8W-c&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212567&amp;sr=8-5</t>
   </si>
   <si>
@@ -6594,10 +6633,16 @@
     <t>B09W6Z45MP</t>
   </si>
   <si>
+    <t>47.97</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/Cargo-Hose-Herren-Jg3024-Olive-Camo-5X-Gro%C3%9F/dp/B09W6Z45MP/ref=sr_1_6?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.cal12Hw39RiSptaBE4OLN7UJAUCT_BhXRFqsO6eGklfo04QwVLxVGeFpF_KtfU5BXdE8I-PoUcBrgO_lo_x_uVW4ccnRna39iI2qTbrPDRk1P6S_vfjtxguLRMM_g223hyrp85yFe6zUe5rdhk3GvNSBG4NSzfXf55XmMTZIhXvQ_GaSPXkmtQ2WaN_PoMiRS7nK3EpdhUObm4zKZVjj9EPdyj4PbU_wwQydX9A3qtlDwYAluL2h8f2ZGJOAH92SGpGHNXJN0Po6nPX5FGQZVAbDTTw3lOjzDUm_PKkXC6Q.ulYiU00CHGkmXbiV5E_HMCrRCv_3mZ7djeEttlT8W-c&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212567&amp;sr=8-6</t>
   </si>
   <si>
     <t>B0DB8JNVVZ</t>
+  </si>
+  <si>
+    <t>44.94</t>
   </si>
   <si>
     <t>https://www.amazon.de/Cargohose-Herren-Baggy-Freizeithose-Trekkinghose/dp/B0DB8JNVVZ/ref=sr_1_7?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.cal12Hw39RiSptaBE4OLN7UJAUCT_BhXRFqsO6eGklfo04QwVLxVGeFpF_KtfU5BXdE8I-PoUcBrgO_lo_x_uVW4ccnRna39iI2qTbrPDRk1P6S_vfjtxguLRMM_g223hyrp85yFe6zUe5rdhk3GvNSBG4NSzfXf55XmMTZIhXvQ_GaSPXkmtQ2WaN_PoMiRS7nK3EpdhUObm4zKZVjj9EPdyj4PbU_wwQydX9A3qtlDwYAluL2h8f2ZGJOAH92SGpGHNXJN0Po6nPX5FGQZVAbDTTw3lOjzDUm_PKkXC6Q.ulYiU00CHGkmXbiV5E_HMCrRCv_3mZ7djeEttlT8W-c&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212567&amp;sr=8-7</t>
@@ -6648,6 +6693,9 @@
     <t>B0DB8H7C5Z</t>
   </si>
   <si>
+    <t>46.39</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/LONGPING-Herren-Cargohose-Arbeitshose-Elastischem/dp/B0DB8H7C5Z/ref=sr_1_8?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.cal12Hw39RiSptaBE4OLN7UJAUCT_BhXRFqsO6eGklfo04QwVLxVGeFpF_KtfU5BXdE8I-PoUcBrgO_lo_x_uVW4ccnRna39iI2qTbrPDRk1P6S_vfjtxguLRMM_g223hyrp85yFe6zUe5rdhk3GvNSBG4NSzfXf55XmMTZIhXvQ_GaSPXkmtQ2WaN_PoMiRS7nK3EpdhUObm4zKZVjj9EPdyj4PbU_wwQydX9A3qtlDwYAluL2h8f2ZGJOAH92SGpGHNXJN0Po6nPX5FGQZVAbDTTw3lOjzDUm_PKkXC6Q.ulYiU00CHGkmXbiV5E_HMCrRCv_3mZ7djeEttlT8W-c&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212567&amp;sr=8-8</t>
   </si>
   <si>
@@ -6678,6 +6726,9 @@
     <t>B0DB1GM9ZW</t>
   </si>
   <si>
+    <t>47.52</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/HOTake-Cargohose-elastische-Fallschirmhose-Jogginghose/dp/B0DB1GM9ZW/ref=sr_1_9?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.cal12Hw39RiSptaBE4OLN7UJAUCT_BhXRFqsO6eGklfo04QwVLxVGeFpF_KtfU5BXdE8I-PoUcBrgO_lo_x_uVW4ccnRna39iI2qTbrPDRk1P6S_vfjtxguLRMM_g223hyrp85yFe6zUe5rdhk3GvNSBG4NSzfXf55XmMTZIhXvQ_GaSPXkmtQ2WaN_PoMiRS7nK3EpdhUObm4zKZVjj9EPdyj4PbU_wwQydX9A3qtlDwYAluL2h8f2ZGJOAH92SGpGHNXJN0Po6nPX5FGQZVAbDTTw3lOjzDUm_PKkXC6Q.ulYiU00CHGkmXbiV5E_HMCrRCv_3mZ7djeEttlT8W-c&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212567&amp;sr=8-9</t>
   </si>
   <si>
@@ -6703,6 +6754,9 @@
   </si>
   <si>
     <t>B09NDMHM7F</t>
+  </si>
+  <si>
+    <t>23.80</t>
   </si>
   <si>
     <t>https://www.amazon.de/ZHINIAN-Herren-Cargohose-Passform-Jogginghose-dunkelgrau/dp/B09NDMHM7F/ref=sr_1_10?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.cal12Hw39RiSptaBE4OLN7UJAUCT_BhXRFqsO6eGklfo04QwVLxVGeFpF_KtfU5BXdE8I-PoUcBrgO_lo_x_uVW4ccnRna39iI2qTbrPDRk1P6S_vfjtxguLRMM_g223hyrp85yFe6zUe5rdhk3GvNSBG4NSzfXf55XmMTZIhXvQ_GaSPXkmtQ2WaN_PoMiRS7nK3EpdhUObm4zKZVjj9EPdyj4PbU_wwQydX9A3qtlDwYAluL2h8f2ZGJOAH92SGpGHNXJN0Po6nPX5FGQZVAbDTTw3lOjzDUm_PKkXC6Q.ulYiU00CHGkmXbiV5E_HMCrRCv_3mZ7djeEttlT8W-c&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212567&amp;sr=8-10</t>
@@ -6771,6 +6825,9 @@
     <t>B0DB8KB2VF</t>
   </si>
   <si>
+    <t>17.27</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/EMAlusher-Arbeitshose-Sommerhose-Freizeithose-Trekkinghose/dp/B0DB8KB2VF/ref=sr_1_12?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.cal12Hw39RiSptaBE4OLN7UJAUCT_BhXRFqsO6eGklfo04QwVLxVGeFpF_KtfU5BXdE8I-PoUcBrgO_lo_x_uVW4ccnRna39iI2qTbrPDRk1P6S_vfjtxguLRMM_g223hyrp85yFe6zUe5rdhk3GvNSBG4NSzfXf55XmMTZIhXvQ_GaSPXkmtQ2WaN_PoMiRS7nK3EpdhUObm4zKZVjj9EPdyj4PbU_wwQydX9A3qtlDwYAluL2h8f2ZGJOAH92SGpGHNXJN0Po6nPX5FGQZVAbDTTw3lOjzDUm_PKkXC6Q.ulYiU00CHGkmXbiV5E_HMCrRCv_3mZ7djeEttlT8W-c&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212567&amp;sr=8-12</t>
   </si>
   <si>
@@ -6801,6 +6858,9 @@
     <t>B0DB8JDHF3</t>
   </si>
   <si>
+    <t>19.58</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/EMAlusher-Arbeitshose-Sommerhose-Freizeithose-Outdoorhose/dp/B0DB8JDHF3/ref=sr_1_13?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.cal12Hw39RiSptaBE4OLN7UJAUCT_BhXRFqsO6eGklfo04QwVLxVGeFpF_KtfU5BXdE8I-PoUcBrgO_lo_x_uVW4ccnRna39iI2qTbrPDRk1P6S_vfjtxguLRMM_g223hyrp85yFe6zUe5rdhk3GvNSBG4NSzfXf55XmMTZIhXvQ_GaSPXkmtQ2WaN_PoMiRS7nK3EpdhUObm4zKZVjj9EPdyj4PbU_wwQydX9A3qtlDwYAluL2h8f2ZGJOAH92SGpGHNXJN0Po6nPX5FGQZVAbDTTw3lOjzDUm_PKkXC6Q.ulYiU00CHGkmXbiV5E_HMCrRCv_3mZ7djeEttlT8W-c&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212567&amp;sr=8-13</t>
   </si>
   <si>
@@ -6819,6 +6879,9 @@
     <t>B0DB8KM1BP</t>
   </si>
   <si>
+    <t>17.80</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/EMAlusher-Arbeitshose-Sommerhose-Freizeithose-Outdoorhose/dp/B0DB8KM1BP/ref=sr_1_14?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.cal12Hw39RiSptaBE4OLN7UJAUCT_BhXRFqsO6eGklfo04QwVLxVGeFpF_KtfU5BXdE8I-PoUcBrgO_lo_x_uVW4ccnRna39iI2qTbrPDRk1P6S_vfjtxguLRMM_g223hyrp85yFe6zUe5rdhk3GvNSBG4NSzfXf55XmMTZIhXvQ_GaSPXkmtQ2WaN_PoMiRS7nK3EpdhUObm4zKZVjj9EPdyj4PbU_wwQydX9A3qtlDwYAluL2h8f2ZGJOAH92SGpGHNXJN0Po6nPX5FGQZVAbDTTw3lOjzDUm_PKkXC6Q.ulYiU00CHGkmXbiV5E_HMCrRCv_3mZ7djeEttlT8W-c&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212567&amp;sr=8-14</t>
   </si>
   <si>
@@ -6828,6 +6891,9 @@
     <t>B0DB8G7QQH</t>
   </si>
   <si>
+    <t>21.09</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/EMAlusher-Arbeitshose-Sommerhose-Freizeithose-Trekkinghose/dp/B0DB8G7QQH/ref=sr_1_15?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.cal12Hw39RiSptaBE4OLN7UJAUCT_BhXRFqsO6eGklfo04QwVLxVGeFpF_KtfU5BXdE8I-PoUcBrgO_lo_x_uVW4ccnRna39iI2qTbrPDRk1P6S_vfjtxguLRMM_g223hyrp85yFe6zUe5rdhk3GvNSBG4NSzfXf55XmMTZIhXvQ_GaSPXkmtQ2WaN_PoMiRS7nK3EpdhUObm4zKZVjj9EPdyj4PbU_wwQydX9A3qtlDwYAluL2h8f2ZGJOAH92SGpGHNXJN0Po6nPX5FGQZVAbDTTw3lOjzDUm_PKkXC6Q.ulYiU00CHGkmXbiV5E_HMCrRCv_3mZ7djeEttlT8W-c&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212567&amp;sr=8-15</t>
   </si>
   <si>
@@ -6838,6 +6904,9 @@
   </si>
   <si>
     <t>B0DB8H4Q3W</t>
+  </si>
+  <si>
+    <t>13.95</t>
   </si>
   <si>
     <t>https://www.amazon.de/Freizeithose-Cargohose-Sweatpants-Camouflage-Arbeitshose/dp/B0DB8H4Q3W/ref=sr_1_16?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.cal12Hw39RiSptaBE4OLN7UJAUCT_BhXRFqsO6eGklfo04QwVLxVGeFpF_KtfU5BXdE8I-PoUcBrgO_lo_x_uVW4ccnRna39iI2qTbrPDRk1P6S_vfjtxguLRMM_g223hyrp85yFe6zUe5rdhk3GvNSBG4NSzfXf55XmMTZIhXvQ_GaSPXkmtQ2WaN_PoMiRS7nK3EpdhUObm4zKZVjj9EPdyj4PbU_wwQydX9A3qtlDwYAluL2h8f2ZGJOAH92SGpGHNXJN0Po6nPX5FGQZVAbDTTw3lOjzDUm_PKkXC6Q.ulYiU00CHGkmXbiV5E_HMCrRCv_3mZ7djeEttlT8W-c&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212567&amp;sr=8-16</t>
@@ -6867,6 +6936,9 @@
     <t>B0DB8J5TGB</t>
   </si>
   <si>
+    <t>11.63</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/Bestellung-Arbeitshosen-Arbeitshose-Elastische-Jogginganzug/dp/B0DB8J5TGB/ref=sr_1_17?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.cal12Hw39RiSptaBE4OLN7UJAUCT_BhXRFqsO6eGklfo04QwVLxVGeFpF_KtfU5BXdE8I-PoUcBrgO_lo_x_uVW4ccnRna39iI2qTbrPDRk1P6S_vfjtxguLRMM_g223hyrp85yFe6zUe5rdhk3GvNSBG4NSzfXf55XmMTZIhXvQ_GaSPXkmtQ2WaN_PoMiRS7nK3EpdhUObm4zKZVjj9EPdyj4PbU_wwQydX9A3qtlDwYAluL2h8f2ZGJOAH92SGpGHNXJN0Po6nPX5FGQZVAbDTTw3lOjzDUm_PKkXC6Q.ulYiU00CHGkmXbiV5E_HMCrRCv_3mZ7djeEttlT8W-c&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212567&amp;sr=8-17</t>
   </si>
   <si>
@@ -6877,6 +6949,9 @@
   </si>
   <si>
     <t>B0DB8GT3FP</t>
+  </si>
+  <si>
+    <t>10.85</t>
   </si>
   <si>
     <t>https://www.amazon.de/Bestellungen-Cargohose-Mittelalter-Jogginghose-wasserdichte/dp/B0DB8GT3FP/ref=sr_1_18?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.cal12Hw39RiSptaBE4OLN7UJAUCT_BhXRFqsO6eGklfo04QwVLxVGeFpF_KtfU5BXdE8I-PoUcBrgO_lo_x_uVW4ccnRna39iI2qTbrPDRk1P6S_vfjtxguLRMM_g223hyrp85yFe6zUe5rdhk3GvNSBG4NSzfXf55XmMTZIhXvQ_GaSPXkmtQ2WaN_PoMiRS7nK3EpdhUObm4zKZVjj9EPdyj4PbU_wwQydX9A3qtlDwYAluL2h8f2ZGJOAH92SGpGHNXJN0Po6nPX5FGQZVAbDTTw3lOjzDUm_PKkXC6Q.ulYiU00CHGkmXbiV5E_HMCrRCv_3mZ7djeEttlT8W-c&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212567&amp;sr=8-18</t>
@@ -6903,6 +6978,9 @@
   </si>
   <si>
     <t>B0DB8J3V3W</t>
+  </si>
+  <si>
+    <t>11.91</t>
   </si>
   <si>
     <t>https://www.amazon.de/Bestellungen-Cargohose-Kordelzug-Freizeithose-Jogginghose/dp/B0DB8J3V3W/ref=sr_1_19?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.cal12Hw39RiSptaBE4OLN7UJAUCT_BhXRFqsO6eGklfo04QwVLxVGeFpF_KtfU5BXdE8I-PoUcBrgO_lo_x_uVW4ccnRna39iI2qTbrPDRk1P6S_vfjtxguLRMM_g223hyrp85yFe6zUe5rdhk3GvNSBG4NSzfXf55XmMTZIhXvQ_GaSPXkmtQ2WaN_PoMiRS7nK3EpdhUObm4zKZVjj9EPdyj4PbU_wwQydX9A3qtlDwYAluL2h8f2ZGJOAH92SGpGHNXJN0Po6nPX5FGQZVAbDTTw3lOjzDUm_PKkXC6Q.ulYiU00CHGkmXbiV5E_HMCrRCv_3mZ7djeEttlT8W-c&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212567&amp;sr=8-19</t>
@@ -6933,6 +7011,9 @@
     <t>B0DB8HQRQ6</t>
   </si>
   <si>
+    <t>12.03</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/Blitzangebote-Cargohose-Sommerhose-Einfarbig-Elastische/dp/B0DB8HQRQ6/ref=sr_1_20?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.cal12Hw39RiSptaBE4OLN7UJAUCT_BhXRFqsO6eGklfo04QwVLxVGeFpF_KtfU5BXdE8I-PoUcBrgO_lo_x_uVW4ccnRna39iI2qTbrPDRk1P6S_vfjtxguLRMM_g223hyrp85yFe6zUe5rdhk3GvNSBG4NSzfXf55XmMTZIhXvQ_GaSPXkmtQ2WaN_PoMiRS7nK3EpdhUObm4zKZVjj9EPdyj4PbU_wwQydX9A3qtlDwYAluL2h8f2ZGJOAH92SGpGHNXJN0Po6nPX5FGQZVAbDTTw3lOjzDUm_PKkXC6Q.ulYiU00CHGkmXbiV5E_HMCrRCv_3mZ7djeEttlT8W-c&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212567&amp;sr=8-20</t>
   </si>
   <si>
@@ -6963,21 +7044,33 @@
     <t>https://www.amazon.de/Performance-Pants-Herren-Schwarz-Gr%C3%B6%C3%9Fe/dp/B09HXLDG5B/ref=sr_1_2?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.TKq-k1WmrbtTKqmpCd4fh8SXFIzNx_fSTduDR2-BPYZiVjlKQtqzdBYRfJHE1y1pIBTcB2XxcP7XJ_1QV3vE9k7ERA3p4hngMNtOZ0_4yLXkWqEPROvENIzdvMPs058SCqmGXBt3PbLP4x4skDNRBko_UXnnIbRpulaQ0cSpAUvUJA1ejm_wGCHGGpRpFl0vWuTsdk5bb4Rb1hwJWES-ynnTQyDl5FPe3W7r_7TXSny46rtLm-9MW9XchXkTUlFgaDlF9mOTLmpu3cblwMoo6alzUq6yjutdswbYWDfJS2U.hWiwUK2teIc9A23IfXI6DwwN0oYAWIJzwGuoG2FoRSc&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212812&amp;sr=8-2</t>
   </si>
   <si>
+    <t>33.91</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/Brandit-Herren-Vintage-Schwarz-Herstellergr%C3%B6%C3%9Fe/dp/B0051FJQOU/ref=sr_1_3?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.TKq-k1WmrbtTKqmpCd4fh8SXFIzNx_fSTduDR2-BPYZiVjlKQtqzdBYRfJHE1y1pIBTcB2XxcP7XJ_1QV3vE9k7ERA3p4hngMNtOZ0_4yLXkWqEPROvENIzdvMPs058SCqmGXBt3PbLP4x4skDNRBko_UXnnIbRpulaQ0cSpAUvUJA1ejm_wGCHGGpRpFl0vWuTsdk5bb4Rb1hwJWES-ynnTQyDl5FPe3W7r_7TXSny46rtLm-9MW9XchXkTUlFgaDlF9mOTLmpu3cblwMoo6alzUq6yjutdswbYWDfJS2U.hWiwUK2teIc9A23IfXI6DwwN0oYAWIJzwGuoG2FoRSc&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212812&amp;sr=8-3</t>
   </si>
   <si>
     <t>https://www.amazon.de/Indicode-Baumwollhose-Freizeithose-Trekkinghose-Outdoorhose/dp/B08D9KWV3M/ref=sr_1_4?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.TKq-k1WmrbtTKqmpCd4fh8SXFIzNx_fSTduDR2-BPYZiVjlKQtqzdBYRfJHE1y1pIBTcB2XxcP7XJ_1QV3vE9k7ERA3p4hngMNtOZ0_4yLXkWqEPROvENIzdvMPs058SCqmGXBt3PbLP4x4skDNRBko_UXnnIbRpulaQ0cSpAUvUJA1ejm_wGCHGGpRpFl0vWuTsdk5bb4Rb1hwJWES-ynnTQyDl5FPe3W7r_7TXSny46rtLm-9MW9XchXkTUlFgaDlF9mOTLmpu3cblwMoo6alzUq6yjutdswbYWDfJS2U.hWiwUK2teIc9A23IfXI6DwwN0oYAWIJzwGuoG2FoRSc&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212812&amp;sr=8-4</t>
   </si>
   <si>
+    <t>40.99</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/Vthereal-Arbeitshose-Arbeitshosen-verst%C3%A4rktem-Kniepolster-Taschen/dp/B0CRDSDV1G/ref=sr_1_5?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.TKq-k1WmrbtTKqmpCd4fh8SXFIzNx_fSTduDR2-BPYZiVjlKQtqzdBYRfJHE1y1pIBTcB2XxcP7XJ_1QV3vE9k7ERA3p4hngMNtOZ0_4yLXkWqEPROvENIzdvMPs058SCqmGXBt3PbLP4x4skDNRBko_UXnnIbRpulaQ0cSpAUvUJA1ejm_wGCHGGpRpFl0vWuTsdk5bb4Rb1hwJWES-ynnTQyDl5FPe3W7r_7TXSny46rtLm-9MW9XchXkTUlFgaDlF9mOTLmpu3cblwMoo6alzUq6yjutdswbYWDfJS2U.hWiwUK2teIc9A23IfXI6DwwN0oYAWIJzwGuoG2FoRSc&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212812&amp;sr=8-5</t>
   </si>
   <si>
     <t>https://www.amazon.de/Uvex-Tune-Up-Arbeitshosen-M%C3%A4nner-Cargohose/dp/B07NVQZG71/ref=sr_1_6?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.TKq-k1WmrbtTKqmpCd4fh8SXFIzNx_fSTduDR2-BPYZiVjlKQtqzdBYRfJHE1y1pIBTcB2XxcP7XJ_1QV3vE9k7ERA3p4hngMNtOZ0_4yLXkWqEPROvENIzdvMPs058SCqmGXBt3PbLP4x4skDNRBko_UXnnIbRpulaQ0cSpAUvUJA1ejm_wGCHGGpRpFl0vWuTsdk5bb4Rb1hwJWES-ynnTQyDl5FPe3W7r_7TXSny46rtLm-9MW9XchXkTUlFgaDlF9mOTLmpu3cblwMoo6alzUq6yjutdswbYWDfJS2U.hWiwUK2teIc9A23IfXI6DwwN0oYAWIJzwGuoG2FoRSc&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212812&amp;sr=8-6</t>
   </si>
   <si>
+    <t>32.29</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/Breampot-Cargohose-Baumwolle-Outdoorhose-Arbeitshose/dp/B0C84DX8BQ/ref=sr_1_7?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.TKq-k1WmrbtTKqmpCd4fh8SXFIzNx_fSTduDR2-BPYZiVjlKQtqzdBYRfJHE1y1pIBTcB2XxcP7XJ_1QV3vE9k7ERA3p4hngMNtOZ0_4yLXkWqEPROvENIzdvMPs058SCqmGXBt3PbLP4x4skDNRBko_UXnnIbRpulaQ0cSpAUvUJA1ejm_wGCHGGpRpFl0vWuTsdk5bb4Rb1hwJWES-ynnTQyDl5FPe3W7r_7TXSny46rtLm-9MW9XchXkTUlFgaDlF9mOTLmpu3cblwMoo6alzUq6yjutdswbYWDfJS2U.hWiwUK2teIc9A23IfXI6DwwN0oYAWIJzwGuoG2FoRSc&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212812&amp;sr=8-7</t>
   </si>
   <si>
+    <t>28.03</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/JMIERR-Jogginghose-Freizeithose-Elastische-Sweatpants/dp/B0BF9VKSLW/ref=sr_1_8?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.TKq-k1WmrbtTKqmpCd4fh8SXFIzNx_fSTduDR2-BPYZiVjlKQtqzdBYRfJHE1y1pIBTcB2XxcP7XJ_1QV3vE9k7ERA3p4hngMNtOZ0_4yLXkWqEPROvENIzdvMPs058SCqmGXBt3PbLP4x4skDNRBko_UXnnIbRpulaQ0cSpAUvUJA1ejm_wGCHGGpRpFl0vWuTsdk5bb4Rb1hwJWES-ynnTQyDl5FPe3W7r_7TXSny46rtLm-9MW9XchXkTUlFgaDlF9mOTLmpu3cblwMoo6alzUq6yjutdswbYWDfJS2U.hWiwUK2teIc9A23IfXI6DwwN0oYAWIJzwGuoG2FoRSc&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212812&amp;sr=8-8</t>
   </si>
   <si>
@@ -6993,6 +7086,9 @@
     <t>https://www.amazon.de/Cindeyar-Herren-Sporthose-Freizeithose-Schwarz/dp/B08G1DBYHW/ref=sr_1_11?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.TKq-k1WmrbtTKqmpCd4fh8SXFIzNx_fSTduDR2-BPYZiVjlKQtqzdBYRfJHE1y1pIBTcB2XxcP7XJ_1QV3vE9k7ERA3p4hngMNtOZ0_4yLXkWqEPROvENIzdvMPs058SCqmGXBt3PbLP4x4skDNRBko_UXnnIbRpulaQ0cSpAUvUJA1ejm_wGCHGGpRpFl0vWuTsdk5bb4Rb1hwJWES-ynnTQyDl5FPe3W7r_7TXSny46rtLm-9MW9XchXkTUlFgaDlF9mOTLmpu3cblwMoo6alzUq6yjutdswbYWDfJS2U.hWiwUK2teIc9A23IfXI6DwwN0oYAWIJzwGuoG2FoRSc&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212812&amp;sr=8-11</t>
   </si>
   <si>
+    <t>40.02</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/Herren-Jones-Jogger-Gummibund-Farben/dp/B07C272VPJ/ref=sr_1_12_mod_primary_new?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.TKq-k1WmrbtTKqmpCd4fh8SXFIzNx_fSTduDR2-BPYZiVjlKQtqzdBYRfJHE1y1pIBTcB2XxcP7XJ_1QV3vE9k7ERA3p4hngMNtOZ0_4yLXkWqEPROvENIzdvMPs058SCqmGXBt3PbLP4x4skDNRBko_UXnnIbRpulaQ0cSpAUvUJA1ejm_wGCHGGpRpFl0vWuTsdk5bb4Rb1hwJWES-ynnTQyDl5FPe3W7r_7TXSny46rtLm-9MW9XchXkTUlFgaDlF9mOTLmpu3cblwMoo6alzUq6yjutdswbYWDfJS2U.hWiwUK2teIc9A23IfXI6DwwN0oYAWIJzwGuoG2FoRSc&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212812&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sr=8-12</t>
   </si>
   <si>
@@ -7020,6 +7116,9 @@
     <t>B07XL2VM9Y</t>
   </si>
   <si>
+    <t>42.70</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/Uvex-Synexxo-Light-M%C3%A4nner-Arbeitshosen/dp/B07XL2VM9Y/ref=sr_1_14?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.TKq-k1WmrbtTKqmpCd4fh8SXFIzNx_fSTduDR2-BPYZiVjlKQtqzdBYRfJHE1y1pIBTcB2XxcP7XJ_1QV3vE9k7ERA3p4hngMNtOZ0_4yLXkWqEPROvENIzdvMPs058SCqmGXBt3PbLP4x4skDNRBko_UXnnIbRpulaQ0cSpAUvUJA1ejm_wGCHGGpRpFl0vWuTsdk5bb4Rb1hwJWES-ynnTQyDl5FPe3W7r_7TXSny46rtLm-9MW9XchXkTUlFgaDlF9mOTLmpu3cblwMoo6alzUq6yjutdswbYWDfJS2U.hWiwUK2teIc9A23IfXI6DwwN0oYAWIJzwGuoG2FoRSc&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212812&amp;sr=8-14</t>
   </si>
   <si>
@@ -7050,6 +7149,9 @@
     <t>B0BNL3RLCQ</t>
   </si>
   <si>
+    <t>34.84</t>
+  </si>
+  <si>
     <t>https://www.amazon.de/Jolicloth-Cargohose-Baumwolle-Outdoorhose-Freizeithose/dp/B0BNL3RLCQ/ref=sr_1_16?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.TKq-k1WmrbtTKqmpCd4fh8SXFIzNx_fSTduDR2-BPYZiVjlKQtqzdBYRfJHE1y1pIBTcB2XxcP7XJ_1QV3vE9k7ERA3p4hngMNtOZ0_4yLXkWqEPROvENIzdvMPs058SCqmGXBt3PbLP4x4skDNRBko_UXnnIbRpulaQ0cSpAUvUJA1ejm_wGCHGGpRpFl0vWuTsdk5bb4Rb1hwJWES-ynnTQyDl5FPe3W7r_7TXSny46rtLm-9MW9XchXkTUlFgaDlF9mOTLmpu3cblwMoo6alzUq6yjutdswbYWDfJS2U.hWiwUK2teIc9A23IfXI6DwwN0oYAWIJzwGuoG2FoRSc&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212812&amp;sr=8-16</t>
   </si>
   <si>
@@ -7066,6 +7168,9 @@
   </si>
   <si>
     <t>B0051FJRZ8</t>
+  </si>
+  <si>
+    <t>43.33</t>
   </si>
   <si>
     <t>https://www.amazon.de/BRANDIT-Pure-Hose-Old-White/dp/B0051FJRZ8/ref=sr_1_17?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dib=eyJ2IjoiMSJ9.TKq-k1WmrbtTKqmpCd4fh8SXFIzNx_fSTduDR2-BPYZiVjlKQtqzdBYRfJHE1y1pIBTcB2XxcP7XJ_1QV3vE9k7ERA3p4hngMNtOZ0_4yLXkWqEPROvENIzdvMPs058SCqmGXBt3PbLP4x4skDNRBko_UXnnIbRpulaQ0cSpAUvUJA1ejm_wGCHGGpRpFl0vWuTsdk5bb4Rb1hwJWES-ynnTQyDl5FPe3W7r_7TXSny46rtLm-9MW9XchXkTUlFgaDlF9mOTLmpu3cblwMoo6alzUq6yjutdswbYWDfJS2U.hWiwUK2teIc9A23IfXI6DwwN0oYAWIJzwGuoG2FoRSc&amp;dib_tag=se&amp;keywords=cargohose+herren&amp;qid=1722212812&amp;sr=8-17</t>
@@ -7108,7 +7213,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7119,6 +7224,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7586,154 +7698,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -8085,59 +8196,59 @@
   <sheetPr/>
   <dimension ref="A1:P701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A574" workbookViewId="0">
-      <selection activeCell="F602" sqref="F602"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -38141,7 +38252,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="602" spans="1:15">
+    <row r="602" spans="1:16">
       <c r="A602" t="s">
         <v>16</v>
       </c>
@@ -38157,8 +38268,8 @@
       <c r="E602" t="s">
         <v>1895</v>
       </c>
-      <c r="F602">
-        <v>79</v>
+      <c r="F602" t="s">
+        <v>1263</v>
       </c>
       <c r="G602" t="s">
         <v>1896</v>
@@ -38187,8 +38298,11 @@
       <c r="O602" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="603" spans="1:15">
+      <c r="P602" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="603" spans="1:16">
       <c r="A603" t="s">
         <v>16</v>
       </c>
@@ -38204,11 +38318,11 @@
       <c r="E603" t="s">
         <v>172</v>
       </c>
-      <c r="F603">
-        <v>30.39</v>
+      <c r="F603" t="s">
+        <v>1899</v>
       </c>
       <c r="G603" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="H603" t="s">
         <v>52</v>
@@ -38234,8 +38348,11 @@
       <c r="O603" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="604" spans="1:15">
+      <c r="P603" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="604" spans="1:16">
       <c r="A604" t="s">
         <v>16</v>
       </c>
@@ -38251,11 +38368,11 @@
       <c r="E604" t="s">
         <v>32</v>
       </c>
-      <c r="F604">
-        <v>37.49</v>
+      <c r="F604" t="s">
+        <v>33</v>
       </c>
       <c r="G604" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="H604" t="s">
         <v>35</v>
@@ -38281,8 +38398,11 @@
       <c r="O604" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="605" spans="1:15">
+      <c r="P604" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="605" spans="1:16">
       <c r="A605" t="s">
         <v>16</v>
       </c>
@@ -38298,11 +38418,11 @@
       <c r="E605" t="s">
         <v>1853</v>
       </c>
-      <c r="F605">
-        <v>30.58</v>
+      <c r="F605" t="s">
+        <v>1902</v>
       </c>
       <c r="G605" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="H605" t="s">
         <v>833</v>
@@ -38328,8 +38448,11 @@
       <c r="O605" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="606" spans="1:15">
+      <c r="P605" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="606" spans="1:16">
       <c r="A606" t="s">
         <v>16</v>
       </c>
@@ -38345,11 +38468,11 @@
       <c r="E606" t="s">
         <v>59</v>
       </c>
-      <c r="F606">
-        <v>40.4</v>
+      <c r="F606" t="s">
+        <v>776</v>
       </c>
       <c r="G606" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="H606" t="s">
         <v>62</v>
@@ -38375,8 +38498,11 @@
       <c r="O606" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="607" spans="1:15">
+      <c r="P606" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="607" spans="1:16">
       <c r="A607" t="s">
         <v>16</v>
       </c>
@@ -38392,11 +38518,11 @@
       <c r="E607" t="s">
         <v>70</v>
       </c>
-      <c r="F607">
-        <v>44.9</v>
+      <c r="F607" t="s">
+        <v>71</v>
       </c>
       <c r="G607" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="H607" t="s">
         <v>73</v>
@@ -38422,8 +38548,11 @@
       <c r="O607" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="608" spans="1:15">
+      <c r="P607" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="608" spans="1:16">
       <c r="A608" t="s">
         <v>16</v>
       </c>
@@ -38439,11 +38568,11 @@
       <c r="E608" t="s">
         <v>104</v>
       </c>
-      <c r="F608">
-        <v>25.49</v>
+      <c r="F608" t="s">
+        <v>933</v>
       </c>
       <c r="G608" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="H608" t="s">
         <v>107</v>
@@ -38469,8 +38598,11 @@
       <c r="O608" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="609" spans="1:15">
+      <c r="P608" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="609" spans="1:16">
       <c r="A609" t="s">
         <v>16</v>
       </c>
@@ -38486,11 +38618,11 @@
       <c r="E609" t="s">
         <v>81</v>
       </c>
-      <c r="F609">
-        <v>37.99</v>
+      <c r="F609" t="s">
+        <v>82</v>
       </c>
       <c r="G609" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="H609" t="s">
         <v>84</v>
@@ -38516,8 +38648,11 @@
       <c r="O609" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="610" spans="1:15">
+      <c r="P609" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="610" spans="1:16">
       <c r="A610" t="s">
         <v>16</v>
       </c>
@@ -38533,11 +38668,11 @@
       <c r="E610" t="s">
         <v>1466</v>
       </c>
-      <c r="F610">
-        <v>29.9</v>
+      <c r="F610" t="s">
+        <v>1159</v>
       </c>
       <c r="G610" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="H610" t="s">
         <v>1161</v>
@@ -38545,6 +38680,9 @@
       <c r="I610" t="s">
         <v>1162</v>
       </c>
+      <c r="J610" t="s">
+        <v>31</v>
+      </c>
       <c r="K610" t="s">
         <v>179</v>
       </c>
@@ -38560,8 +38698,11 @@
       <c r="O610" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="611" spans="1:15">
+      <c r="P610" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="611" spans="1:16">
       <c r="A611" t="s">
         <v>16</v>
       </c>
@@ -38577,11 +38718,11 @@
       <c r="E611" t="s">
         <v>153</v>
       </c>
-      <c r="F611">
-        <v>40.39</v>
+      <c r="F611" t="s">
+        <v>1909</v>
       </c>
       <c r="G611" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="H611" t="s">
         <v>156</v>
@@ -38607,8 +38748,11 @@
       <c r="O611" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="612" spans="1:15">
+      <c r="P611" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="612" spans="1:16">
       <c r="A612" t="s">
         <v>16</v>
       </c>
@@ -38622,16 +38766,16 @@
         <v>19</v>
       </c>
       <c r="E612" t="s">
-        <v>1908</v>
-      </c>
-      <c r="F612">
-        <v>30.4</v>
+        <v>1911</v>
+      </c>
+      <c r="F612" t="s">
+        <v>21</v>
       </c>
       <c r="G612" t="s">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="H612" t="s">
-        <v>1910</v>
+        <v>1913</v>
       </c>
       <c r="I612" t="s">
         <v>24</v>
@@ -38654,8 +38798,11 @@
       <c r="O612" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="613" spans="1:15">
+      <c r="P612" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="613" spans="1:16">
       <c r="A613" t="s">
         <v>16</v>
       </c>
@@ -38669,40 +38816,43 @@
         <v>19</v>
       </c>
       <c r="E613" t="s">
-        <v>1911</v>
-      </c>
-      <c r="F613">
-        <v>38.99</v>
+        <v>1914</v>
+      </c>
+      <c r="F613" t="s">
+        <v>50</v>
       </c>
       <c r="G613" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="H613" t="s">
-        <v>1913</v>
+        <v>1916</v>
       </c>
       <c r="I613" t="s">
-        <v>1914</v>
+        <v>1917</v>
       </c>
       <c r="J613" t="s">
         <v>37</v>
       </c>
       <c r="K613" t="s">
-        <v>1915</v>
+        <v>1918</v>
       </c>
       <c r="L613" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="M613" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="N613" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="O613" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="614" spans="1:15">
+        <v>1922</v>
+      </c>
+      <c r="P613" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="614" spans="1:16">
       <c r="A614" t="s">
         <v>16</v>
       </c>
@@ -38716,40 +38866,43 @@
         <v>19</v>
       </c>
       <c r="E614" t="s">
-        <v>1920</v>
-      </c>
-      <c r="F614">
-        <v>29.98</v>
+        <v>1923</v>
+      </c>
+      <c r="F614" t="s">
+        <v>1924</v>
       </c>
       <c r="G614" t="s">
-        <v>1921</v>
+        <v>1925</v>
       </c>
       <c r="H614" t="s">
-        <v>1922</v>
+        <v>1926</v>
       </c>
       <c r="I614" t="s">
-        <v>1923</v>
+        <v>1927</v>
       </c>
       <c r="J614" t="s">
         <v>37</v>
       </c>
       <c r="K614" t="s">
-        <v>1924</v>
+        <v>1928</v>
       </c>
       <c r="L614" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="M614" t="s">
-        <v>1926</v>
+        <v>1930</v>
       </c>
       <c r="N614" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="O614" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="615" spans="1:15">
+        <v>1932</v>
+      </c>
+      <c r="P614" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="615" spans="1:16">
       <c r="A615" t="s">
         <v>16</v>
       </c>
@@ -38763,4077 +38916,4344 @@
         <v>19</v>
       </c>
       <c r="E615" t="s">
-        <v>1929</v>
-      </c>
-      <c r="F615">
-        <v>33.9</v>
+        <v>1933</v>
+      </c>
+      <c r="F615" t="s">
+        <v>1934</v>
       </c>
       <c r="G615" t="s">
-        <v>1930</v>
+        <v>1935</v>
       </c>
       <c r="H615" t="s">
-        <v>1931</v>
+        <v>1936</v>
       </c>
       <c r="I615" t="s">
-        <v>1932</v>
+        <v>1937</v>
+      </c>
+      <c r="J615" t="s">
+        <v>31</v>
       </c>
       <c r="K615" t="s">
-        <v>1933</v>
+        <v>1938</v>
       </c>
       <c r="L615" t="s">
-        <v>1934</v>
+        <v>1939</v>
       </c>
       <c r="M615" t="s">
-        <v>1935</v>
+        <v>1940</v>
       </c>
       <c r="N615" t="s">
-        <v>1936</v>
+        <v>1941</v>
       </c>
       <c r="O615" t="s">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="616" s="1" customFormat="1" spans="1:15">
+        <v>1942</v>
+      </c>
+      <c r="P615" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="616" spans="1:16">
       <c r="A616" t="s">
         <v>16</v>
       </c>
-      <c r="B616" s="1" t="s">
+      <c r="B616" t="s">
         <v>1894</v>
       </c>
-      <c r="C616" s="1" t="s">
+      <c r="C616" t="s">
         <v>1260</v>
       </c>
-      <c r="D616" s="1" t="s">
+      <c r="D616" t="s">
         <v>19</v>
       </c>
-      <c r="E616" s="1" t="s">
+      <c r="E616" t="s">
         <v>85</v>
       </c>
-      <c r="F616" s="1">
-        <v>36.99</v>
-      </c>
-      <c r="G616" s="1" t="s">
-        <v>1938</v>
-      </c>
-      <c r="H616" s="1" t="s">
+      <c r="F616" t="s">
+        <v>86</v>
+      </c>
+      <c r="G616" t="s">
+        <v>1943</v>
+      </c>
+      <c r="H616" t="s">
         <v>88</v>
       </c>
-      <c r="I616" s="1" t="s">
+      <c r="I616" t="s">
         <v>89</v>
       </c>
-      <c r="J616" s="1" t="s">
+      <c r="J616" t="s">
         <v>37</v>
       </c>
-      <c r="K616" s="1" t="s">
+      <c r="K616" t="s">
         <v>90</v>
       </c>
-      <c r="L616" s="1" t="s">
+      <c r="L616" t="s">
         <v>91</v>
       </c>
-      <c r="M616" s="1" t="s">
+      <c r="M616" t="s">
         <v>92</v>
       </c>
-      <c r="N616" s="1" t="s">
+      <c r="N616" t="s">
         <v>93</v>
       </c>
-      <c r="O616" s="1" t="s">
+      <c r="O616" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="617" s="1" customFormat="1" spans="1:15">
+      <c r="P616" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="617" spans="1:16">
       <c r="A617" t="s">
         <v>16</v>
       </c>
-      <c r="B617" s="1" t="s">
+      <c r="B617" t="s">
         <v>1894</v>
       </c>
-      <c r="C617" s="1" t="s">
+      <c r="C617" t="s">
         <v>1260</v>
       </c>
-      <c r="D617" s="1" t="s">
+      <c r="D617" t="s">
         <v>19</v>
       </c>
-      <c r="E617" s="1" t="s">
+      <c r="E617" t="s">
         <v>162</v>
       </c>
-      <c r="F617" s="1">
-        <v>21.18</v>
-      </c>
-      <c r="G617" s="1" t="s">
-        <v>1939</v>
-      </c>
-      <c r="H617" s="1" t="s">
+      <c r="F617" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G617" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H617" t="s">
         <v>165</v>
       </c>
-      <c r="I617" s="1" t="s">
+      <c r="I617" t="s">
         <v>166</v>
       </c>
-      <c r="J617" s="1" t="s">
+      <c r="J617" t="s">
         <v>167</v>
       </c>
-      <c r="K617" s="1" t="s">
+      <c r="K617" t="s">
         <v>168</v>
       </c>
-      <c r="L617" s="1" t="s">
+      <c r="L617" t="s">
         <v>169</v>
       </c>
-      <c r="M617" s="1" t="s">
+      <c r="M617" t="s">
         <v>170</v>
       </c>
-      <c r="N617" s="1" t="s">
+      <c r="N617" t="s">
         <v>171</v>
       </c>
-      <c r="O617" s="1" t="s">
+      <c r="O617" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="618" s="1" customFormat="1" spans="1:15">
+      <c r="P617" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="618" spans="1:16">
       <c r="A618" t="s">
         <v>16</v>
       </c>
-      <c r="B618" s="1" t="s">
+      <c r="B618" t="s">
         <v>1894</v>
       </c>
-      <c r="C618" s="1" t="s">
+      <c r="C618" t="s">
         <v>1260</v>
       </c>
-      <c r="D618" s="1" t="s">
+      <c r="D618" t="s">
         <v>19</v>
       </c>
-      <c r="E618" s="1" t="s">
+      <c r="E618" t="s">
         <v>1460</v>
       </c>
-      <c r="F618" s="1">
-        <v>30.39</v>
-      </c>
-      <c r="G618" s="1" t="s">
-        <v>1940</v>
-      </c>
-      <c r="H618" s="1" t="s">
+      <c r="F618" t="s">
+        <v>1899</v>
+      </c>
+      <c r="G618" t="s">
+        <v>1945</v>
+      </c>
+      <c r="H618" t="s">
         <v>52</v>
       </c>
-      <c r="I618" s="1" t="s">
+      <c r="I618" t="s">
         <v>53</v>
       </c>
-      <c r="J618" s="1" t="s">
+      <c r="J618" t="s">
         <v>37</v>
       </c>
-      <c r="K618" s="1" t="s">
+      <c r="K618" t="s">
         <v>54</v>
       </c>
-      <c r="L618" s="1" t="s">
+      <c r="L618" t="s">
         <v>55</v>
       </c>
-      <c r="M618" s="1" t="s">
+      <c r="M618" t="s">
         <v>56</v>
       </c>
-      <c r="N618" s="1" t="s">
+      <c r="N618" t="s">
         <v>57</v>
       </c>
-      <c r="O618" s="1" t="s">
+      <c r="O618" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="619" s="1" customFormat="1" spans="1:15">
+      <c r="P618" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="619" spans="1:16">
       <c r="A619" t="s">
         <v>16</v>
       </c>
-      <c r="B619" s="1" t="s">
+      <c r="B619" t="s">
         <v>1894</v>
       </c>
-      <c r="C619" s="1" t="s">
+      <c r="C619" t="s">
         <v>1260</v>
       </c>
-      <c r="D619" s="1" t="s">
+      <c r="D619" t="s">
         <v>19</v>
       </c>
-      <c r="E619" s="1" t="s">
+      <c r="E619" t="s">
         <v>174</v>
       </c>
-      <c r="F619" s="1">
-        <v>79.95</v>
-      </c>
-      <c r="G619" s="1" t="s">
-        <v>1941</v>
-      </c>
-      <c r="H619" s="1" t="s">
+      <c r="F619" t="s">
+        <v>175</v>
+      </c>
+      <c r="G619" t="s">
+        <v>1946</v>
+      </c>
+      <c r="H619" t="s">
         <v>177</v>
       </c>
-      <c r="I619" s="1" t="s">
+      <c r="I619" t="s">
         <v>178</v>
       </c>
-      <c r="J619" s="1"/>
-      <c r="K619" s="1" t="s">
+      <c r="J619" t="s">
+        <v>31</v>
+      </c>
+      <c r="K619" t="s">
         <v>179</v>
       </c>
-      <c r="L619" s="1" t="s">
+      <c r="L619" t="s">
         <v>180</v>
       </c>
-      <c r="M619" s="1" t="s">
+      <c r="M619" t="s">
         <v>181</v>
       </c>
-      <c r="N619" s="1" t="s">
+      <c r="N619" t="s">
         <v>182</v>
       </c>
-      <c r="O619" s="1" t="s">
+      <c r="O619" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="620" s="1" customFormat="1" spans="1:15">
+      <c r="P619" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="620" spans="1:16">
       <c r="A620" t="s">
         <v>16</v>
       </c>
-      <c r="B620" s="1" t="s">
+      <c r="B620" t="s">
         <v>1894</v>
       </c>
-      <c r="C620" s="1" t="s">
+      <c r="C620" t="s">
         <v>1260</v>
       </c>
-      <c r="D620" s="1" t="s">
+      <c r="D620" t="s">
         <v>19</v>
       </c>
-      <c r="E620" s="1" t="s">
+      <c r="E620" t="s">
         <v>143</v>
       </c>
-      <c r="F620" s="1">
-        <v>33.99</v>
-      </c>
-      <c r="G620" s="1" t="s">
-        <v>1942</v>
-      </c>
-      <c r="H620" s="1" t="s">
+      <c r="F620" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G620" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H620" t="s">
         <v>146</v>
       </c>
-      <c r="I620" s="1" t="s">
+      <c r="I620" t="s">
         <v>147</v>
       </c>
-      <c r="J620" s="1" t="s">
+      <c r="J620" t="s">
         <v>37</v>
       </c>
-      <c r="K620" s="1" t="s">
+      <c r="K620" t="s">
         <v>148</v>
       </c>
-      <c r="L620" s="1" t="s">
+      <c r="L620" t="s">
         <v>149</v>
       </c>
-      <c r="M620" s="1" t="s">
+      <c r="M620" t="s">
         <v>150</v>
       </c>
-      <c r="N620" s="1" t="s">
+      <c r="N620" t="s">
         <v>151</v>
       </c>
-      <c r="O620" s="1" t="s">
+      <c r="O620" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="621" s="1" customFormat="1" spans="1:15">
+      <c r="P620" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="621" spans="1:16">
       <c r="A621" t="s">
         <v>16</v>
       </c>
-      <c r="B621" s="1" t="s">
+      <c r="B621" t="s">
         <v>1894</v>
       </c>
-      <c r="C621" s="1" t="s">
+      <c r="C621" t="s">
         <v>1260</v>
       </c>
-      <c r="D621" s="1" t="s">
+      <c r="D621" t="s">
         <v>19</v>
       </c>
-      <c r="E621" s="1" t="s">
-        <v>1943</v>
-      </c>
-      <c r="F621" s="1">
-        <v>37.99</v>
-      </c>
-      <c r="G621" s="1" t="s">
-        <v>1944</v>
-      </c>
-      <c r="H621" s="1" t="s">
+      <c r="E621" t="s">
+        <v>1949</v>
+      </c>
+      <c r="F621" t="s">
+        <v>82</v>
+      </c>
+      <c r="G621" t="s">
+        <v>1950</v>
+      </c>
+      <c r="H621" t="s">
         <v>88</v>
       </c>
-      <c r="I621" s="1" t="s">
+      <c r="I621" t="s">
         <v>89</v>
       </c>
-      <c r="J621" s="1" t="s">
+      <c r="J621" t="s">
         <v>37</v>
       </c>
-      <c r="K621" s="1" t="s">
+      <c r="K621" t="s">
         <v>90</v>
       </c>
-      <c r="L621" s="1" t="s">
+      <c r="L621" t="s">
         <v>91</v>
       </c>
-      <c r="M621" s="1" t="s">
+      <c r="M621" t="s">
         <v>92</v>
       </c>
-      <c r="N621" s="1" t="s">
+      <c r="N621" t="s">
         <v>93</v>
       </c>
-      <c r="O621" s="1" t="s">
+      <c r="O621" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="622" s="1" customFormat="1" spans="1:15">
+      <c r="P621" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="622" spans="1:16">
       <c r="A622" t="s">
         <v>16</v>
       </c>
-      <c r="B622" s="1" t="s">
+      <c r="B622" t="s">
         <v>1894</v>
       </c>
-      <c r="C622" s="1" t="s">
+      <c r="C622" t="s">
         <v>1260</v>
       </c>
-      <c r="D622" s="1" t="s">
+      <c r="D622" t="s">
         <v>202</v>
       </c>
-      <c r="E622" s="1" t="s">
+      <c r="E622" t="s">
         <v>203</v>
       </c>
-      <c r="F622" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="G622" s="1" t="s">
-        <v>1945</v>
-      </c>
-      <c r="H622" s="1" t="s">
+      <c r="F622" t="s">
+        <v>204</v>
+      </c>
+      <c r="G622" t="s">
+        <v>1951</v>
+      </c>
+      <c r="H622" t="s">
         <v>206</v>
       </c>
-      <c r="I622" s="1" t="s">
+      <c r="I622" t="s">
         <v>207</v>
       </c>
-      <c r="J622" s="1" t="s">
+      <c r="J622" t="s">
         <v>208</v>
       </c>
-      <c r="K622" s="1" t="s">
+      <c r="K622" t="s">
         <v>209</v>
       </c>
-      <c r="L622" s="1" t="s">
+      <c r="L622" t="s">
         <v>210</v>
       </c>
-      <c r="M622" s="1" t="s">
+      <c r="M622" t="s">
         <v>211</v>
       </c>
-      <c r="N622" s="1" t="s">
+      <c r="N622" t="s">
         <v>212</v>
       </c>
-      <c r="O622" s="1" t="s">
+      <c r="O622" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="623" s="1" customFormat="1" spans="1:15">
+      <c r="P622" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="623" spans="1:16">
       <c r="A623" t="s">
         <v>16</v>
       </c>
-      <c r="B623" s="1" t="s">
+      <c r="B623" t="s">
         <v>1894</v>
       </c>
-      <c r="C623" s="1" t="s">
+      <c r="C623" t="s">
         <v>1260</v>
       </c>
-      <c r="D623" s="1" t="s">
+      <c r="D623" t="s">
         <v>202</v>
       </c>
-      <c r="E623" s="1" t="s">
+      <c r="E623" t="s">
         <v>214</v>
       </c>
-      <c r="F623" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G623" s="1" t="s">
-        <v>1946</v>
-      </c>
-      <c r="H623" s="1" t="s">
+      <c r="F623" t="s">
+        <v>215</v>
+      </c>
+      <c r="G623" t="s">
+        <v>1952</v>
+      </c>
+      <c r="H623" t="s">
         <v>217</v>
       </c>
-      <c r="I623" s="1" t="s">
+      <c r="I623" t="s">
         <v>218</v>
       </c>
-      <c r="J623" s="1" t="s">
+      <c r="J623" t="s">
         <v>219</v>
       </c>
-      <c r="K623" s="1" t="s">
+      <c r="K623" t="s">
         <v>220</v>
       </c>
-      <c r="L623" s="1" t="s">
+      <c r="L623" t="s">
         <v>221</v>
       </c>
-      <c r="M623" s="1" t="s">
+      <c r="M623" t="s">
         <v>222</v>
       </c>
-      <c r="N623" s="1" t="s">
+      <c r="N623" t="s">
         <v>223</v>
       </c>
-      <c r="O623" s="1" t="s">
+      <c r="O623" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="624" s="1" customFormat="1" spans="1:15">
+      <c r="P623" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="624" spans="1:16">
       <c r="A624" t="s">
         <v>16</v>
       </c>
-      <c r="B624" s="1" t="s">
+      <c r="B624" t="s">
         <v>1894</v>
       </c>
-      <c r="C624" s="1" t="s">
+      <c r="C624" t="s">
         <v>1260</v>
       </c>
-      <c r="D624" s="1" t="s">
+      <c r="D624" t="s">
         <v>202</v>
       </c>
-      <c r="E624" s="1" t="s">
+      <c r="E624" t="s">
         <v>247</v>
       </c>
-      <c r="F624" s="1">
-        <v>0.34</v>
-      </c>
-      <c r="G624" s="1" t="s">
+      <c r="F624" t="s">
+        <v>248</v>
+      </c>
+      <c r="G624" t="s">
+        <v>1953</v>
+      </c>
+      <c r="H624" t="s">
+        <v>217</v>
+      </c>
+      <c r="I624" t="s">
+        <v>250</v>
+      </c>
+      <c r="J624" t="s">
+        <v>250</v>
+      </c>
+      <c r="K624" t="s">
+        <v>251</v>
+      </c>
+      <c r="L624" t="s">
+        <v>252</v>
+      </c>
+      <c r="M624" t="s">
+        <v>253</v>
+      </c>
+      <c r="N624" t="s">
+        <v>254</v>
+      </c>
+      <c r="O624" t="s">
+        <v>255</v>
+      </c>
+      <c r="P624" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="625" spans="1:16">
+      <c r="A625" t="s">
+        <v>16</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C625" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D625" t="s">
+        <v>202</v>
+      </c>
+      <c r="E625" t="s">
+        <v>256</v>
+      </c>
+      <c r="F625" t="s">
+        <v>257</v>
+      </c>
+      <c r="G625" t="s">
+        <v>1954</v>
+      </c>
+      <c r="H625" t="s">
+        <v>259</v>
+      </c>
+      <c r="I625" t="s">
+        <v>260</v>
+      </c>
+      <c r="J625" t="s">
+        <v>261</v>
+      </c>
+      <c r="K625" t="s">
+        <v>262</v>
+      </c>
+      <c r="L625" t="s">
+        <v>263</v>
+      </c>
+      <c r="M625" t="s">
+        <v>264</v>
+      </c>
+      <c r="N625" t="s">
+        <v>265</v>
+      </c>
+      <c r="O625" t="s">
+        <v>266</v>
+      </c>
+      <c r="P625" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="626" spans="1:16">
+      <c r="A626" t="s">
+        <v>16</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D626" t="s">
+        <v>202</v>
+      </c>
+      <c r="E626" t="s">
+        <v>267</v>
+      </c>
+      <c r="F626" t="s">
+        <v>257</v>
+      </c>
+      <c r="G626" t="s">
+        <v>1955</v>
+      </c>
+      <c r="H626" t="s">
+        <v>269</v>
+      </c>
+      <c r="I626" t="s">
+        <v>270</v>
+      </c>
+      <c r="J626" t="s">
+        <v>219</v>
+      </c>
+      <c r="K626" t="s">
+        <v>271</v>
+      </c>
+      <c r="L626" t="s">
+        <v>272</v>
+      </c>
+      <c r="M626" t="s">
+        <v>273</v>
+      </c>
+      <c r="N626" t="s">
+        <v>274</v>
+      </c>
+      <c r="O626" t="s">
+        <v>275</v>
+      </c>
+      <c r="P626" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="627" spans="1:16">
+      <c r="A627" t="s">
+        <v>16</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D627" t="s">
+        <v>202</v>
+      </c>
+      <c r="E627" t="s">
+        <v>276</v>
+      </c>
+      <c r="F627" t="s">
+        <v>277</v>
+      </c>
+      <c r="G627" t="s">
+        <v>1956</v>
+      </c>
+      <c r="H627" t="s">
+        <v>279</v>
+      </c>
+      <c r="I627" t="s">
+        <v>280</v>
+      </c>
+      <c r="J627" t="s">
+        <v>281</v>
+      </c>
+      <c r="K627" t="s">
+        <v>282</v>
+      </c>
+      <c r="L627" t="s">
+        <v>283</v>
+      </c>
+      <c r="M627" t="s">
+        <v>284</v>
+      </c>
+      <c r="N627" t="s">
+        <v>285</v>
+      </c>
+      <c r="O627" t="s">
+        <v>286</v>
+      </c>
+      <c r="P627" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="628" spans="1:16">
+      <c r="A628" t="s">
+        <v>16</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C628" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D628" t="s">
+        <v>202</v>
+      </c>
+      <c r="E628" t="s">
+        <v>287</v>
+      </c>
+      <c r="F628" t="s">
+        <v>277</v>
+      </c>
+      <c r="G628" t="s">
+        <v>1957</v>
+      </c>
+      <c r="H628" t="s">
+        <v>217</v>
+      </c>
+      <c r="I628" t="s">
+        <v>289</v>
+      </c>
+      <c r="J628" t="s">
+        <v>290</v>
+      </c>
+      <c r="K628" t="s">
+        <v>291</v>
+      </c>
+      <c r="L628" t="s">
+        <v>292</v>
+      </c>
+      <c r="M628" t="s">
+        <v>293</v>
+      </c>
+      <c r="N628" t="s">
+        <v>294</v>
+      </c>
+      <c r="O628" t="s">
+        <v>295</v>
+      </c>
+      <c r="P628" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="629" spans="1:16">
+      <c r="A629" t="s">
+        <v>16</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C629" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D629" t="s">
+        <v>202</v>
+      </c>
+      <c r="E629" t="s">
+        <v>296</v>
+      </c>
+      <c r="F629" t="s">
+        <v>297</v>
+      </c>
+      <c r="G629" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H629" t="s">
+        <v>299</v>
+      </c>
+      <c r="I629" t="s">
+        <v>300</v>
+      </c>
+      <c r="J629" t="s">
+        <v>301</v>
+      </c>
+      <c r="K629" t="s">
+        <v>302</v>
+      </c>
+      <c r="L629" t="s">
+        <v>303</v>
+      </c>
+      <c r="M629" t="s">
+        <v>304</v>
+      </c>
+      <c r="N629" t="s">
+        <v>305</v>
+      </c>
+      <c r="O629" t="s">
+        <v>306</v>
+      </c>
+      <c r="P629" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="630" spans="1:16">
+      <c r="A630" t="s">
+        <v>16</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C630" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D630" t="s">
+        <v>202</v>
+      </c>
+      <c r="E630" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F630" t="s">
+        <v>297</v>
+      </c>
+      <c r="G630" t="s">
+        <v>1959</v>
+      </c>
+      <c r="H630" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I630" t="s">
+        <v>1332</v>
+      </c>
+      <c r="J630" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K630" t="s">
+        <v>1334</v>
+      </c>
+      <c r="L630" t="s">
+        <v>1335</v>
+      </c>
+      <c r="M630" t="s">
+        <v>1336</v>
+      </c>
+      <c r="N630" t="s">
+        <v>1337</v>
+      </c>
+      <c r="O630" t="s">
+        <v>1338</v>
+      </c>
+      <c r="P630" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="631" spans="1:16">
+      <c r="A631" t="s">
+        <v>16</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C631" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D631" t="s">
+        <v>202</v>
+      </c>
+      <c r="E631" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F631" t="s">
+        <v>297</v>
+      </c>
+      <c r="G631" t="s">
+        <v>1961</v>
+      </c>
+      <c r="H631" t="s">
+        <v>1962</v>
+      </c>
+      <c r="I631" t="s">
+        <v>1963</v>
+      </c>
+      <c r="J631" t="s">
+        <v>1964</v>
+      </c>
+      <c r="K631" t="s">
+        <v>1965</v>
+      </c>
+      <c r="L631" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M631" t="s">
+        <v>1967</v>
+      </c>
+      <c r="N631" t="s">
+        <v>1968</v>
+      </c>
+      <c r="O631" t="s">
+        <v>1969</v>
+      </c>
+      <c r="P631" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="632" spans="1:16">
+      <c r="A632" t="s">
+        <v>16</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C632" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D632" t="s">
+        <v>9</v>
+      </c>
+      <c r="E632" t="s">
+        <v>307</v>
+      </c>
+      <c r="F632" t="s">
+        <v>308</v>
+      </c>
+      <c r="G632" t="s">
+        <v>1970</v>
+      </c>
+      <c r="H632" t="s">
+        <v>310</v>
+      </c>
+      <c r="I632" t="s">
+        <v>311</v>
+      </c>
+      <c r="J632" t="s">
+        <v>31</v>
+      </c>
+      <c r="K632" t="s">
+        <v>179</v>
+      </c>
+      <c r="L632" t="s">
+        <v>312</v>
+      </c>
+      <c r="M632" t="s">
+        <v>37</v>
+      </c>
+      <c r="N632" t="s">
+        <v>37</v>
+      </c>
+      <c r="O632" t="s">
+        <v>37</v>
+      </c>
+      <c r="P632" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="633" spans="1:16">
+      <c r="A633" t="s">
+        <v>16</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D633" t="s">
+        <v>9</v>
+      </c>
+      <c r="E633" t="s">
+        <v>975</v>
+      </c>
+      <c r="F633" t="s">
+        <v>976</v>
+      </c>
+      <c r="G633" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H633" t="s">
+        <v>316</v>
+      </c>
+      <c r="I633" t="s">
+        <v>1972</v>
+      </c>
+      <c r="J633" t="s">
+        <v>37</v>
+      </c>
+      <c r="K633" t="s">
+        <v>37</v>
+      </c>
+      <c r="L633" t="s">
+        <v>37</v>
+      </c>
+      <c r="M633" t="s">
+        <v>37</v>
+      </c>
+      <c r="N633" t="s">
+        <v>37</v>
+      </c>
+      <c r="O633" t="s">
+        <v>37</v>
+      </c>
+      <c r="P633" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="634" spans="1:16">
+      <c r="A634" t="s">
+        <v>16</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C634" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D634" t="s">
+        <v>9</v>
+      </c>
+      <c r="E634" t="s">
+        <v>313</v>
+      </c>
+      <c r="F634" t="s">
+        <v>314</v>
+      </c>
+      <c r="G634" t="s">
+        <v>1973</v>
+      </c>
+      <c r="H634" t="s">
+        <v>316</v>
+      </c>
+      <c r="I634" t="s">
+        <v>1974</v>
+      </c>
+      <c r="J634" t="s">
+        <v>318</v>
+      </c>
+      <c r="K634" t="s">
+        <v>37</v>
+      </c>
+      <c r="L634" t="s">
+        <v>37</v>
+      </c>
+      <c r="M634" t="s">
+        <v>37</v>
+      </c>
+      <c r="N634" t="s">
+        <v>37</v>
+      </c>
+      <c r="O634" t="s">
+        <v>37</v>
+      </c>
+      <c r="P634" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="635" spans="1:16">
+      <c r="A635" t="s">
+        <v>16</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C635" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D635" t="s">
+        <v>9</v>
+      </c>
+      <c r="E635" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F635" t="s">
+        <v>1976</v>
+      </c>
+      <c r="G635" t="s">
+        <v>1977</v>
+      </c>
+      <c r="H635" t="s">
+        <v>316</v>
+      </c>
+      <c r="I635" t="s">
+        <v>1978</v>
+      </c>
+      <c r="J635" t="s">
+        <v>318</v>
+      </c>
+      <c r="K635" t="s">
+        <v>319</v>
+      </c>
+      <c r="L635" t="s">
+        <v>320</v>
+      </c>
+      <c r="M635" t="s">
+        <v>321</v>
+      </c>
+      <c r="N635" t="s">
+        <v>322</v>
+      </c>
+      <c r="O635" t="s">
+        <v>323</v>
+      </c>
+      <c r="P635" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="636" spans="1:16">
+      <c r="A636" t="s">
+        <v>16</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C636" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D636" t="s">
+        <v>9</v>
+      </c>
+      <c r="E636" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F636" t="s">
+        <v>1980</v>
+      </c>
+      <c r="G636" t="s">
+        <v>1981</v>
+      </c>
+      <c r="H636" t="s">
+        <v>1982</v>
+      </c>
+      <c r="I636" t="s">
+        <v>1974</v>
+      </c>
+      <c r="J636" t="s">
+        <v>318</v>
+      </c>
+      <c r="K636" t="s">
+        <v>319</v>
+      </c>
+      <c r="L636" t="s">
+        <v>320</v>
+      </c>
+      <c r="M636" t="s">
+        <v>321</v>
+      </c>
+      <c r="N636" t="s">
+        <v>322</v>
+      </c>
+      <c r="O636" t="s">
+        <v>323</v>
+      </c>
+      <c r="P636" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="637" spans="1:16">
+      <c r="A637" t="s">
+        <v>16</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C637" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D637" t="s">
+        <v>9</v>
+      </c>
+      <c r="E637" t="s">
+        <v>324</v>
+      </c>
+      <c r="F637" t="s">
+        <v>325</v>
+      </c>
+      <c r="G637" t="s">
+        <v>1983</v>
+      </c>
+      <c r="H637" t="s">
+        <v>327</v>
+      </c>
+      <c r="I637" t="s">
+        <v>328</v>
+      </c>
+      <c r="J637" t="s">
+        <v>329</v>
+      </c>
+      <c r="K637" t="s">
+        <v>330</v>
+      </c>
+      <c r="L637" t="s">
+        <v>331</v>
+      </c>
+      <c r="M637" t="s">
+        <v>332</v>
+      </c>
+      <c r="N637" t="s">
+        <v>333</v>
+      </c>
+      <c r="O637" t="s">
+        <v>334</v>
+      </c>
+      <c r="P637" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="638" spans="1:16">
+      <c r="A638" t="s">
+        <v>16</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C638" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D638" t="s">
+        <v>9</v>
+      </c>
+      <c r="E638" t="s">
+        <v>335</v>
+      </c>
+      <c r="F638" t="s">
+        <v>325</v>
+      </c>
+      <c r="G638" t="s">
+        <v>1984</v>
+      </c>
+      <c r="H638" t="s">
+        <v>337</v>
+      </c>
+      <c r="I638" t="s">
+        <v>338</v>
+      </c>
+      <c r="J638" t="s">
+        <v>329</v>
+      </c>
+      <c r="K638" t="s">
+        <v>330</v>
+      </c>
+      <c r="L638" t="s">
+        <v>331</v>
+      </c>
+      <c r="M638" t="s">
+        <v>332</v>
+      </c>
+      <c r="N638" t="s">
+        <v>333</v>
+      </c>
+      <c r="O638" t="s">
+        <v>334</v>
+      </c>
+      <c r="P638" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="639" spans="1:16">
+      <c r="A639" t="s">
+        <v>16</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C639" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D639" t="s">
+        <v>9</v>
+      </c>
+      <c r="E639" t="s">
+        <v>339</v>
+      </c>
+      <c r="F639" t="s">
+        <v>325</v>
+      </c>
+      <c r="G639" t="s">
+        <v>1985</v>
+      </c>
+      <c r="H639" t="s">
+        <v>327</v>
+      </c>
+      <c r="I639" t="s">
+        <v>341</v>
+      </c>
+      <c r="J639" t="s">
+        <v>329</v>
+      </c>
+      <c r="K639" t="s">
+        <v>330</v>
+      </c>
+      <c r="L639" t="s">
+        <v>331</v>
+      </c>
+      <c r="M639" t="s">
+        <v>332</v>
+      </c>
+      <c r="N639" t="s">
+        <v>333</v>
+      </c>
+      <c r="O639" t="s">
+        <v>334</v>
+      </c>
+      <c r="P639" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="640" spans="1:16">
+      <c r="A640" t="s">
+        <v>16</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C640" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D640" t="s">
+        <v>9</v>
+      </c>
+      <c r="E640" t="s">
+        <v>342</v>
+      </c>
+      <c r="F640" t="s">
+        <v>325</v>
+      </c>
+      <c r="G640" t="s">
+        <v>1986</v>
+      </c>
+      <c r="H640" t="s">
+        <v>337</v>
+      </c>
+      <c r="I640" t="s">
+        <v>344</v>
+      </c>
+      <c r="J640" t="s">
+        <v>329</v>
+      </c>
+      <c r="K640" t="s">
+        <v>330</v>
+      </c>
+      <c r="L640" t="s">
+        <v>331</v>
+      </c>
+      <c r="M640" t="s">
+        <v>332</v>
+      </c>
+      <c r="N640" t="s">
+        <v>333</v>
+      </c>
+      <c r="O640" t="s">
+        <v>334</v>
+      </c>
+      <c r="P640" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="641" spans="1:16">
+      <c r="A641" t="s">
+        <v>16</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C641" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D641" t="s">
+        <v>9</v>
+      </c>
+      <c r="E641" t="s">
+        <v>345</v>
+      </c>
+      <c r="F641" t="s">
+        <v>325</v>
+      </c>
+      <c r="G641" t="s">
+        <v>1987</v>
+      </c>
+      <c r="H641" t="s">
+        <v>327</v>
+      </c>
+      <c r="I641" t="s">
+        <v>347</v>
+      </c>
+      <c r="J641" t="s">
+        <v>329</v>
+      </c>
+      <c r="K641" t="s">
+        <v>330</v>
+      </c>
+      <c r="L641" t="s">
+        <v>331</v>
+      </c>
+      <c r="M641" t="s">
+        <v>332</v>
+      </c>
+      <c r="N641" t="s">
+        <v>333</v>
+      </c>
+      <c r="O641" t="s">
+        <v>334</v>
+      </c>
+      <c r="P641" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="642" spans="1:16">
+      <c r="A642" t="s">
+        <v>16</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C642" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D642" t="s">
+        <v>373</v>
+      </c>
+      <c r="E642" t="s">
+        <v>374</v>
+      </c>
+      <c r="F642" t="s">
+        <v>375</v>
+      </c>
+      <c r="G642" t="s">
+        <v>1988</v>
+      </c>
+      <c r="H642" t="s">
+        <v>377</v>
+      </c>
+      <c r="I642" t="s">
+        <v>378</v>
+      </c>
+      <c r="J642" t="s">
+        <v>379</v>
+      </c>
+      <c r="K642" t="s">
+        <v>380</v>
+      </c>
+      <c r="L642" t="s">
+        <v>381</v>
+      </c>
+      <c r="M642" t="s">
+        <v>382</v>
+      </c>
+      <c r="N642" t="s">
+        <v>383</v>
+      </c>
+      <c r="O642" t="s">
+        <v>384</v>
+      </c>
+      <c r="P642" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="643" spans="1:16">
+      <c r="A643" t="s">
+        <v>16</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C643" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D643" t="s">
+        <v>373</v>
+      </c>
+      <c r="E643" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F643" t="s">
+        <v>1990</v>
+      </c>
+      <c r="G643" t="s">
+        <v>1991</v>
+      </c>
+      <c r="H643" t="s">
+        <v>535</v>
+      </c>
+      <c r="I643" t="s">
+        <v>536</v>
+      </c>
+      <c r="J643" t="s">
+        <v>537</v>
+      </c>
+      <c r="K643" t="s">
+        <v>1992</v>
+      </c>
+      <c r="L643" t="s">
+        <v>1993</v>
+      </c>
+      <c r="M643" t="s">
+        <v>1994</v>
+      </c>
+      <c r="N643" t="s">
+        <v>1995</v>
+      </c>
+      <c r="O643" t="s">
+        <v>37</v>
+      </c>
+      <c r="P643" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="644" spans="1:16">
+      <c r="A644" t="s">
+        <v>16</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C644" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D644" t="s">
+        <v>373</v>
+      </c>
+      <c r="E644" t="s">
+        <v>385</v>
+      </c>
+      <c r="F644" t="s">
+        <v>386</v>
+      </c>
+      <c r="G644" t="s">
+        <v>1996</v>
+      </c>
+      <c r="H644" t="s">
+        <v>388</v>
+      </c>
+      <c r="I644" t="s">
+        <v>389</v>
+      </c>
+      <c r="J644" t="s">
+        <v>390</v>
+      </c>
+      <c r="K644" t="s">
+        <v>179</v>
+      </c>
+      <c r="L644" t="s">
+        <v>391</v>
+      </c>
+      <c r="M644" t="s">
+        <v>392</v>
+      </c>
+      <c r="N644" t="s">
+        <v>182</v>
+      </c>
+      <c r="O644" t="s">
+        <v>37</v>
+      </c>
+      <c r="P644" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="645" spans="1:16">
+      <c r="A645" t="s">
+        <v>16</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C645" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D645" t="s">
+        <v>373</v>
+      </c>
+      <c r="E645" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F645" t="s">
+        <v>1736</v>
+      </c>
+      <c r="G645" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H645" t="s">
+        <v>1738</v>
+      </c>
+      <c r="I645" t="s">
+        <v>397</v>
+      </c>
+      <c r="J645" t="s">
+        <v>398</v>
+      </c>
+      <c r="K645" t="s">
+        <v>399</v>
+      </c>
+      <c r="L645" t="s">
+        <v>400</v>
+      </c>
+      <c r="M645" t="s">
+        <v>401</v>
+      </c>
+      <c r="N645" t="s">
+        <v>402</v>
+      </c>
+      <c r="O645" t="s">
+        <v>403</v>
+      </c>
+      <c r="P645" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="646" spans="1:16">
+      <c r="A646" t="s">
+        <v>16</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C646" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D646" t="s">
+        <v>373</v>
+      </c>
+      <c r="E646" t="s">
+        <v>404</v>
+      </c>
+      <c r="F646" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G646" t="s">
+        <v>1999</v>
+      </c>
+      <c r="H646" t="s">
+        <v>407</v>
+      </c>
+      <c r="I646" t="s">
+        <v>408</v>
+      </c>
+      <c r="J646" t="s">
+        <v>409</v>
+      </c>
+      <c r="K646" t="s">
+        <v>410</v>
+      </c>
+      <c r="L646" t="s">
+        <v>411</v>
+      </c>
+      <c r="M646" t="s">
+        <v>412</v>
+      </c>
+      <c r="N646" t="s">
+        <v>413</v>
+      </c>
+      <c r="O646" t="s">
+        <v>414</v>
+      </c>
+      <c r="P646" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="647" spans="1:16">
+      <c r="A647" t="s">
+        <v>16</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C647" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D647" t="s">
+        <v>373</v>
+      </c>
+      <c r="E647" t="s">
+        <v>416</v>
+      </c>
+      <c r="F647" t="s">
+        <v>417</v>
+      </c>
+      <c r="G647" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H647" t="s">
+        <v>419</v>
+      </c>
+      <c r="I647" t="s">
+        <v>420</v>
+      </c>
+      <c r="J647" t="s">
+        <v>421</v>
+      </c>
+      <c r="K647" t="s">
+        <v>422</v>
+      </c>
+      <c r="L647" t="s">
+        <v>423</v>
+      </c>
+      <c r="M647" t="s">
+        <v>424</v>
+      </c>
+      <c r="N647" t="s">
+        <v>425</v>
+      </c>
+      <c r="O647" t="s">
+        <v>426</v>
+      </c>
+      <c r="P647" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="648" spans="1:16">
+      <c r="A648" t="s">
+        <v>16</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C648" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D648" t="s">
+        <v>373</v>
+      </c>
+      <c r="E648" t="s">
+        <v>427</v>
+      </c>
+      <c r="F648" t="s">
+        <v>2001</v>
+      </c>
+      <c r="G648" t="s">
+        <v>2002</v>
+      </c>
+      <c r="H648" t="s">
+        <v>430</v>
+      </c>
+      <c r="I648" t="s">
+        <v>431</v>
+      </c>
+      <c r="J648" t="s">
+        <v>432</v>
+      </c>
+      <c r="K648" t="s">
+        <v>433</v>
+      </c>
+      <c r="L648" t="s">
+        <v>434</v>
+      </c>
+      <c r="M648" t="s">
+        <v>435</v>
+      </c>
+      <c r="N648" t="s">
+        <v>436</v>
+      </c>
+      <c r="O648" t="s">
+        <v>437</v>
+      </c>
+      <c r="P648" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="649" spans="1:16">
+      <c r="A649" t="s">
+        <v>16</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C649" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D649" t="s">
+        <v>373</v>
+      </c>
+      <c r="E649" t="s">
+        <v>438</v>
+      </c>
+      <c r="F649" t="s">
+        <v>1514</v>
+      </c>
+      <c r="G649" t="s">
+        <v>2003</v>
+      </c>
+      <c r="H649" t="s">
+        <v>441</v>
+      </c>
+      <c r="I649" t="s">
+        <v>442</v>
+      </c>
+      <c r="J649" t="s">
+        <v>443</v>
+      </c>
+      <c r="K649" t="s">
+        <v>444</v>
+      </c>
+      <c r="L649" t="s">
+        <v>445</v>
+      </c>
+      <c r="M649" t="s">
+        <v>446</v>
+      </c>
+      <c r="N649" t="s">
+        <v>447</v>
+      </c>
+      <c r="O649" t="s">
+        <v>448</v>
+      </c>
+      <c r="P649" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="650" spans="1:16">
+      <c r="A650" t="s">
+        <v>16</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C650" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D650" t="s">
+        <v>373</v>
+      </c>
+      <c r="E650" t="s">
+        <v>449</v>
+      </c>
+      <c r="F650" t="s">
+        <v>1744</v>
+      </c>
+      <c r="G650" t="s">
+        <v>2004</v>
+      </c>
+      <c r="H650" t="s">
+        <v>452</v>
+      </c>
+      <c r="I650" t="s">
+        <v>453</v>
+      </c>
+      <c r="J650" t="s">
+        <v>1517</v>
+      </c>
+      <c r="K650" t="s">
+        <v>454</v>
+      </c>
+      <c r="L650" t="s">
+        <v>455</v>
+      </c>
+      <c r="M650" t="s">
+        <v>456</v>
+      </c>
+      <c r="N650" t="s">
+        <v>457</v>
+      </c>
+      <c r="O650" t="s">
+        <v>458</v>
+      </c>
+      <c r="P650" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="651" spans="1:16">
+      <c r="A651" t="s">
+        <v>16</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C651" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D651" t="s">
+        <v>373</v>
+      </c>
+      <c r="E651" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F651" t="s">
+        <v>175</v>
+      </c>
+      <c r="G651" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H651" t="s">
+        <v>461</v>
+      </c>
+      <c r="I651" t="s">
+        <v>462</v>
+      </c>
+      <c r="J651" t="s">
+        <v>463</v>
+      </c>
+      <c r="K651" t="s">
+        <v>464</v>
+      </c>
+      <c r="L651" t="s">
+        <v>465</v>
+      </c>
+      <c r="M651" t="s">
+        <v>466</v>
+      </c>
+      <c r="N651" t="s">
+        <v>467</v>
+      </c>
+      <c r="O651" t="s">
+        <v>468</v>
+      </c>
+      <c r="P651" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="652" spans="1:16">
+      <c r="A652" t="s">
+        <v>16</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C652" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D652" t="s">
+        <v>373</v>
+      </c>
+      <c r="E652" t="s">
+        <v>469</v>
+      </c>
+      <c r="F652" t="s">
+        <v>1747</v>
+      </c>
+      <c r="G652" t="s">
+        <v>2007</v>
+      </c>
+      <c r="H652" t="s">
+        <v>472</v>
+      </c>
+      <c r="I652" t="s">
+        <v>473</v>
+      </c>
+      <c r="J652" t="s">
+        <v>474</v>
+      </c>
+      <c r="K652" t="s">
+        <v>475</v>
+      </c>
+      <c r="L652" t="s">
+        <v>476</v>
+      </c>
+      <c r="M652" t="s">
+        <v>477</v>
+      </c>
+      <c r="N652" t="s">
+        <v>478</v>
+      </c>
+      <c r="O652" t="s">
+        <v>479</v>
+      </c>
+      <c r="P652" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="653" spans="1:16">
+      <c r="A653" t="s">
+        <v>16</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C653" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D653" t="s">
+        <v>373</v>
+      </c>
+      <c r="E653" t="s">
+        <v>480</v>
+      </c>
+      <c r="F653" t="s">
+        <v>481</v>
+      </c>
+      <c r="G653" t="s">
+        <v>2008</v>
+      </c>
+      <c r="H653" t="s">
+        <v>483</v>
+      </c>
+      <c r="I653" t="s">
+        <v>484</v>
+      </c>
+      <c r="J653" t="s">
+        <v>485</v>
+      </c>
+      <c r="K653" t="s">
+        <v>486</v>
+      </c>
+      <c r="L653" t="s">
+        <v>37</v>
+      </c>
+      <c r="M653" t="s">
+        <v>37</v>
+      </c>
+      <c r="N653" t="s">
+        <v>37</v>
+      </c>
+      <c r="O653" t="s">
+        <v>37</v>
+      </c>
+      <c r="P653" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="654" spans="1:16">
+      <c r="A654" t="s">
+        <v>16</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C654" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D654" t="s">
+        <v>373</v>
+      </c>
+      <c r="E654" t="s">
+        <v>487</v>
+      </c>
+      <c r="F654" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G654" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H654" t="s">
+        <v>490</v>
+      </c>
+      <c r="I654" t="s">
+        <v>491</v>
+      </c>
+      <c r="J654" t="s">
+        <v>492</v>
+      </c>
+      <c r="K654" t="s">
+        <v>493</v>
+      </c>
+      <c r="L654" t="s">
+        <v>494</v>
+      </c>
+      <c r="M654" t="s">
+        <v>495</v>
+      </c>
+      <c r="N654" t="s">
+        <v>496</v>
+      </c>
+      <c r="O654" t="s">
+        <v>497</v>
+      </c>
+      <c r="P654" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="655" spans="1:16">
+      <c r="A655" t="s">
+        <v>16</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C655" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D655" t="s">
+        <v>373</v>
+      </c>
+      <c r="E655" t="s">
+        <v>503</v>
+      </c>
+      <c r="F655" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G655" t="s">
+        <v>2010</v>
+      </c>
+      <c r="H655" t="s">
+        <v>506</v>
+      </c>
+      <c r="I655" t="s">
+        <v>507</v>
+      </c>
+      <c r="J655" t="s">
+        <v>508</v>
+      </c>
+      <c r="K655" t="s">
+        <v>509</v>
+      </c>
+      <c r="L655" t="s">
+        <v>510</v>
+      </c>
+      <c r="M655" t="s">
+        <v>511</v>
+      </c>
+      <c r="N655" t="s">
+        <v>512</v>
+      </c>
+      <c r="O655" t="s">
+        <v>37</v>
+      </c>
+      <c r="P655" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="656" spans="1:16">
+      <c r="A656" t="s">
+        <v>16</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C656" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D656" t="s">
+        <v>373</v>
+      </c>
+      <c r="E656" t="s">
+        <v>498</v>
+      </c>
+      <c r="F656" t="s">
+        <v>499</v>
+      </c>
+      <c r="G656" t="s">
+        <v>2011</v>
+      </c>
+      <c r="H656" t="s">
+        <v>501</v>
+      </c>
+      <c r="I656" t="s">
+        <v>2012</v>
+      </c>
+      <c r="J656" t="s">
+        <v>2013</v>
+      </c>
+      <c r="K656" t="s">
+        <v>2014</v>
+      </c>
+      <c r="L656" t="s">
+        <v>2015</v>
+      </c>
+      <c r="M656" t="s">
+        <v>2016</v>
+      </c>
+      <c r="N656" t="s">
+        <v>2017</v>
+      </c>
+      <c r="O656" t="s">
+        <v>2018</v>
+      </c>
+      <c r="P656" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="657" spans="1:16">
+      <c r="A657" t="s">
+        <v>16</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C657" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D657" t="s">
+        <v>373</v>
+      </c>
+      <c r="E657" t="s">
+        <v>513</v>
+      </c>
+      <c r="F657" t="s">
+        <v>514</v>
+      </c>
+      <c r="G657" t="s">
+        <v>2019</v>
+      </c>
+      <c r="H657" t="s">
+        <v>516</v>
+      </c>
+      <c r="I657" t="s">
+        <v>517</v>
+      </c>
+      <c r="J657" t="s">
+        <v>31</v>
+      </c>
+      <c r="K657" t="s">
+        <v>518</v>
+      </c>
+      <c r="L657" t="s">
+        <v>519</v>
+      </c>
+      <c r="M657" t="s">
+        <v>520</v>
+      </c>
+      <c r="N657" t="s">
+        <v>521</v>
+      </c>
+      <c r="O657" t="s">
+        <v>37</v>
+      </c>
+      <c r="P657" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="658" spans="1:16">
+      <c r="A658" t="s">
+        <v>16</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C658" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D658" t="s">
+        <v>373</v>
+      </c>
+      <c r="E658" t="s">
+        <v>522</v>
+      </c>
+      <c r="F658" t="s">
+        <v>523</v>
+      </c>
+      <c r="G658" t="s">
+        <v>2020</v>
+      </c>
+      <c r="H658" t="s">
+        <v>525</v>
+      </c>
+      <c r="I658" t="s">
+        <v>526</v>
+      </c>
+      <c r="J658" t="s">
+        <v>379</v>
+      </c>
+      <c r="K658" t="s">
+        <v>380</v>
+      </c>
+      <c r="L658" t="s">
+        <v>381</v>
+      </c>
+      <c r="M658" t="s">
+        <v>382</v>
+      </c>
+      <c r="N658" t="s">
+        <v>383</v>
+      </c>
+      <c r="O658" t="s">
+        <v>384</v>
+      </c>
+      <c r="P658" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="659" spans="1:16">
+      <c r="A659" t="s">
+        <v>16</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C659" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D659" t="s">
+        <v>373</v>
+      </c>
+      <c r="E659" t="s">
+        <v>527</v>
+      </c>
+      <c r="F659" t="s">
+        <v>2021</v>
+      </c>
+      <c r="G659" t="s">
+        <v>2022</v>
+      </c>
+      <c r="H659" t="s">
+        <v>530</v>
+      </c>
+      <c r="I659" t="s">
+        <v>531</v>
+      </c>
+      <c r="J659" t="s">
+        <v>1527</v>
+      </c>
+      <c r="K659" t="s">
+        <v>454</v>
+      </c>
+      <c r="L659" t="s">
+        <v>455</v>
+      </c>
+      <c r="M659" t="s">
+        <v>456</v>
+      </c>
+      <c r="N659" t="s">
+        <v>457</v>
+      </c>
+      <c r="O659" t="s">
+        <v>458</v>
+      </c>
+      <c r="P659" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="660" spans="1:16">
+      <c r="A660" t="s">
+        <v>16</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C660" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D660" t="s">
+        <v>373</v>
+      </c>
+      <c r="E660" t="s">
+        <v>543</v>
+      </c>
+      <c r="F660" t="s">
+        <v>544</v>
+      </c>
+      <c r="G660" t="s">
+        <v>2023</v>
+      </c>
+      <c r="H660" t="s">
+        <v>546</v>
+      </c>
+      <c r="I660" t="s">
+        <v>547</v>
+      </c>
+      <c r="J660" t="s">
+        <v>548</v>
+      </c>
+      <c r="K660" t="s">
+        <v>549</v>
+      </c>
+      <c r="L660" t="s">
+        <v>550</v>
+      </c>
+      <c r="M660" t="s">
+        <v>551</v>
+      </c>
+      <c r="N660" t="s">
+        <v>552</v>
+      </c>
+      <c r="O660" t="s">
+        <v>553</v>
+      </c>
+      <c r="P660" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="661" spans="1:16">
+      <c r="A661" t="s">
+        <v>16</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D661" t="s">
+        <v>373</v>
+      </c>
+      <c r="E661" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F661" t="s">
+        <v>555</v>
+      </c>
+      <c r="G661" t="s">
+        <v>2024</v>
+      </c>
+      <c r="H661" t="s">
+        <v>1540</v>
+      </c>
+      <c r="I661" t="s">
+        <v>558</v>
+      </c>
+      <c r="J661" t="s">
+        <v>37</v>
+      </c>
+      <c r="K661" t="s">
+        <v>559</v>
+      </c>
+      <c r="L661" t="s">
+        <v>560</v>
+      </c>
+      <c r="M661" t="s">
+        <v>561</v>
+      </c>
+      <c r="N661" t="s">
+        <v>562</v>
+      </c>
+      <c r="O661" t="s">
+        <v>563</v>
+      </c>
+      <c r="P661" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="662" spans="1:16">
+      <c r="A662" t="s">
+        <v>16</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C662" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D662" t="s">
+        <v>564</v>
+      </c>
+      <c r="E662" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F662" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G662" t="s">
+        <v>2027</v>
+      </c>
+      <c r="H662" t="s">
+        <v>2028</v>
+      </c>
+      <c r="I662" t="s">
+        <v>2029</v>
+      </c>
+      <c r="J662" t="s">
+        <v>2030</v>
+      </c>
+      <c r="K662" t="s">
+        <v>2031</v>
+      </c>
+      <c r="L662" t="s">
+        <v>2032</v>
+      </c>
+      <c r="M662" t="s">
+        <v>2033</v>
+      </c>
+      <c r="N662" t="s">
+        <v>2034</v>
+      </c>
+      <c r="O662" t="s">
+        <v>2035</v>
+      </c>
+      <c r="P662" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="663" spans="1:16">
+      <c r="A663" t="s">
+        <v>16</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C663" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D663" t="s">
+        <v>564</v>
+      </c>
+      <c r="E663" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F663" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G663" t="s">
+        <v>2037</v>
+      </c>
+      <c r="H663" t="s">
+        <v>2038</v>
+      </c>
+      <c r="I663" t="s">
+        <v>2039</v>
+      </c>
+      <c r="J663" t="s">
+        <v>37</v>
+      </c>
+      <c r="K663" t="s">
+        <v>2040</v>
+      </c>
+      <c r="L663" t="s">
+        <v>2041</v>
+      </c>
+      <c r="M663" t="s">
+        <v>2042</v>
+      </c>
+      <c r="N663" t="s">
+        <v>2043</v>
+      </c>
+      <c r="O663" t="s">
+        <v>2044</v>
+      </c>
+      <c r="P663" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="664" spans="1:16">
+      <c r="A664" t="s">
+        <v>16</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C664" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D664" t="s">
+        <v>564</v>
+      </c>
+      <c r="E664" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F664" t="s">
+        <v>2046</v>
+      </c>
+      <c r="G664" t="s">
+        <v>2047</v>
+      </c>
+      <c r="H664" t="s">
+        <v>2048</v>
+      </c>
+      <c r="I664" t="s">
+        <v>2049</v>
+      </c>
+      <c r="J664" t="s">
+        <v>2050</v>
+      </c>
+      <c r="K664" t="s">
+        <v>2051</v>
+      </c>
+      <c r="L664" t="s">
+        <v>2052</v>
+      </c>
+      <c r="M664" t="s">
+        <v>2053</v>
+      </c>
+      <c r="N664" t="s">
+        <v>2054</v>
+      </c>
+      <c r="O664" t="s">
+        <v>2055</v>
+      </c>
+      <c r="P664" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="665" spans="1:16">
+      <c r="A665" t="s">
+        <v>16</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C665" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D665" t="s">
+        <v>564</v>
+      </c>
+      <c r="E665" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F665" t="s">
+        <v>2058</v>
+      </c>
+      <c r="G665" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H665" t="s">
+        <v>2060</v>
+      </c>
+      <c r="I665" t="s">
+        <v>2061</v>
+      </c>
+      <c r="J665" t="s">
+        <v>31</v>
+      </c>
+      <c r="K665" t="s">
+        <v>2062</v>
+      </c>
+      <c r="L665" t="s">
+        <v>2063</v>
+      </c>
+      <c r="M665" t="s">
+        <v>2064</v>
+      </c>
+      <c r="N665" t="s">
+        <v>2065</v>
+      </c>
+      <c r="O665" t="s">
+        <v>2066</v>
+      </c>
+      <c r="P665" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="666" spans="1:16">
+      <c r="A666" t="s">
+        <v>16</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C666" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D666" t="s">
+        <v>564</v>
+      </c>
+      <c r="E666" t="s">
+        <v>2067</v>
+      </c>
+      <c r="F666" t="s">
+        <v>2068</v>
+      </c>
+      <c r="G666" t="s">
+        <v>2069</v>
+      </c>
+      <c r="H666" t="s">
+        <v>2070</v>
+      </c>
+      <c r="I666" t="s">
+        <v>2071</v>
+      </c>
+      <c r="J666" t="s">
+        <v>37</v>
+      </c>
+      <c r="K666" t="s">
+        <v>2072</v>
+      </c>
+      <c r="L666" t="s">
+        <v>802</v>
+      </c>
+      <c r="M666" t="s">
+        <v>803</v>
+      </c>
+      <c r="N666" t="s">
+        <v>804</v>
+      </c>
+      <c r="O666" t="s">
+        <v>2073</v>
+      </c>
+      <c r="P666" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="667" spans="1:16">
+      <c r="A667" t="s">
+        <v>16</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C667" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D667" t="s">
+        <v>564</v>
+      </c>
+      <c r="E667" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F667" t="s">
+        <v>2075</v>
+      </c>
+      <c r="G667" t="s">
+        <v>2076</v>
+      </c>
+      <c r="H667" t="s">
+        <v>568</v>
+      </c>
+      <c r="I667" t="s">
+        <v>536</v>
+      </c>
+      <c r="J667" t="s">
+        <v>537</v>
+      </c>
+      <c r="K667" t="s">
+        <v>1992</v>
+      </c>
+      <c r="L667" t="s">
+        <v>1993</v>
+      </c>
+      <c r="M667" t="s">
+        <v>1994</v>
+      </c>
+      <c r="N667" t="s">
+        <v>1995</v>
+      </c>
+      <c r="O667" t="s">
+        <v>37</v>
+      </c>
+      <c r="P667" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="668" spans="1:16">
+      <c r="A668" t="s">
+        <v>16</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C668" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D668" t="s">
+        <v>564</v>
+      </c>
+      <c r="E668" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F668" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G668" t="s">
+        <v>2079</v>
+      </c>
+      <c r="H668" t="s">
+        <v>2080</v>
+      </c>
+      <c r="I668" t="s">
+        <v>2081</v>
+      </c>
+      <c r="J668" t="s">
+        <v>2082</v>
+      </c>
+      <c r="K668" t="s">
+        <v>2083</v>
+      </c>
+      <c r="L668" t="s">
+        <v>2084</v>
+      </c>
+      <c r="M668" t="s">
+        <v>2085</v>
+      </c>
+      <c r="N668" t="s">
+        <v>2086</v>
+      </c>
+      <c r="O668" t="s">
+        <v>2087</v>
+      </c>
+      <c r="P668" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="669" spans="1:16">
+      <c r="A669" t="s">
+        <v>16</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C669" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D669" t="s">
+        <v>564</v>
+      </c>
+      <c r="E669" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F669" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G669" t="s">
+        <v>2090</v>
+      </c>
+      <c r="H669" t="s">
+        <v>2080</v>
+      </c>
+      <c r="I669" t="s">
+        <v>2091</v>
+      </c>
+      <c r="J669" t="s">
+        <v>2092</v>
+      </c>
+      <c r="K669" t="s">
+        <v>2083</v>
+      </c>
+      <c r="L669" t="s">
+        <v>2084</v>
+      </c>
+      <c r="M669" t="s">
+        <v>2085</v>
+      </c>
+      <c r="N669" t="s">
+        <v>2086</v>
+      </c>
+      <c r="O669" t="s">
+        <v>2087</v>
+      </c>
+      <c r="P669" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="670" spans="1:16">
+      <c r="A670" t="s">
+        <v>16</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C670" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D670" t="s">
+        <v>564</v>
+      </c>
+      <c r="E670" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F670" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G670" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H670" t="s">
+        <v>2096</v>
+      </c>
+      <c r="I670" t="s">
+        <v>2097</v>
+      </c>
+      <c r="J670" t="s">
+        <v>31</v>
+      </c>
+      <c r="K670" t="s">
+        <v>2098</v>
+      </c>
+      <c r="L670" t="s">
+        <v>2099</v>
+      </c>
+      <c r="M670" t="s">
+        <v>2100</v>
+      </c>
+      <c r="N670" t="s">
+        <v>2101</v>
+      </c>
+      <c r="O670" t="s">
+        <v>2102</v>
+      </c>
+      <c r="P670" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="671" spans="1:16">
+      <c r="A671" t="s">
+        <v>16</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C671" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D671" t="s">
+        <v>564</v>
+      </c>
+      <c r="E671" t="s">
+        <v>2103</v>
+      </c>
+      <c r="F671" t="s">
+        <v>2104</v>
+      </c>
+      <c r="G671" t="s">
+        <v>2105</v>
+      </c>
+      <c r="H671" t="s">
+        <v>2106</v>
+      </c>
+      <c r="I671" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J671" t="s">
+        <v>2108</v>
+      </c>
+      <c r="K671" t="s">
+        <v>2109</v>
+      </c>
+      <c r="L671" t="s">
+        <v>2110</v>
+      </c>
+      <c r="M671" t="s">
+        <v>2111</v>
+      </c>
+      <c r="N671" t="s">
+        <v>2112</v>
+      </c>
+      <c r="O671" t="s">
+        <v>2113</v>
+      </c>
+      <c r="P671" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="672" spans="1:16">
+      <c r="A672" t="s">
+        <v>16</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C672" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D672" t="s">
+        <v>564</v>
+      </c>
+      <c r="E672" t="s">
+        <v>2114</v>
+      </c>
+      <c r="F672" t="s">
+        <v>50</v>
+      </c>
+      <c r="G672" t="s">
+        <v>2115</v>
+      </c>
+      <c r="H672" t="s">
+        <v>2116</v>
+      </c>
+      <c r="I672" t="s">
+        <v>2117</v>
+      </c>
+      <c r="J672" t="s">
+        <v>2118</v>
+      </c>
+      <c r="K672" t="s">
+        <v>158</v>
+      </c>
+      <c r="L672" t="s">
+        <v>37</v>
+      </c>
+      <c r="M672" t="s">
+        <v>37</v>
+      </c>
+      <c r="N672" t="s">
+        <v>37</v>
+      </c>
+      <c r="O672" t="s">
+        <v>37</v>
+      </c>
+      <c r="P672" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="673" spans="1:16">
+      <c r="A673" t="s">
+        <v>16</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C673" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D673" t="s">
+        <v>564</v>
+      </c>
+      <c r="E673" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F673" t="s">
+        <v>2120</v>
+      </c>
+      <c r="G673" t="s">
+        <v>2121</v>
+      </c>
+      <c r="H673" t="s">
+        <v>2122</v>
+      </c>
+      <c r="I673" t="s">
+        <v>2123</v>
+      </c>
+      <c r="J673" t="s">
+        <v>2124</v>
+      </c>
+      <c r="K673" t="s">
+        <v>2125</v>
+      </c>
+      <c r="L673" t="s">
+        <v>2126</v>
+      </c>
+      <c r="M673" t="s">
+        <v>2127</v>
+      </c>
+      <c r="N673" t="s">
+        <v>2128</v>
+      </c>
+      <c r="O673" t="s">
+        <v>2129</v>
+      </c>
+      <c r="P673" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="674" spans="1:16">
+      <c r="A674" t="s">
+        <v>16</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C674" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D674" t="s">
+        <v>564</v>
+      </c>
+      <c r="E674" t="s">
+        <v>2130</v>
+      </c>
+      <c r="F674" t="s">
+        <v>2131</v>
+      </c>
+      <c r="G674" t="s">
+        <v>2132</v>
+      </c>
+      <c r="H674" t="s">
+        <v>2133</v>
+      </c>
+      <c r="I674" t="s">
+        <v>2134</v>
+      </c>
+      <c r="J674" t="s">
+        <v>2135</v>
+      </c>
+      <c r="K674" t="s">
+        <v>2125</v>
+      </c>
+      <c r="L674" t="s">
+        <v>2126</v>
+      </c>
+      <c r="M674" t="s">
+        <v>2127</v>
+      </c>
+      <c r="N674" t="s">
+        <v>2128</v>
+      </c>
+      <c r="O674" t="s">
+        <v>2136</v>
+      </c>
+      <c r="P674" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="675" spans="1:16">
+      <c r="A675" t="s">
+        <v>16</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C675" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D675" t="s">
+        <v>564</v>
+      </c>
+      <c r="E675" t="s">
+        <v>2137</v>
+      </c>
+      <c r="F675" t="s">
+        <v>2138</v>
+      </c>
+      <c r="G675" t="s">
+        <v>2139</v>
+      </c>
+      <c r="H675" t="s">
+        <v>614</v>
+      </c>
+      <c r="I675" t="s">
+        <v>2140</v>
+      </c>
+      <c r="J675" t="s">
+        <v>2124</v>
+      </c>
+      <c r="K675" t="s">
+        <v>2125</v>
+      </c>
+      <c r="L675" t="s">
+        <v>2126</v>
+      </c>
+      <c r="M675" t="s">
+        <v>2127</v>
+      </c>
+      <c r="N675" t="s">
+        <v>2128</v>
+      </c>
+      <c r="O675" t="s">
+        <v>2129</v>
+      </c>
+      <c r="P675" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="676" spans="1:16">
+      <c r="A676" t="s">
+        <v>16</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C676" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D676" t="s">
+        <v>564</v>
+      </c>
+      <c r="E676" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F676" t="s">
+        <v>2142</v>
+      </c>
+      <c r="G676" t="s">
+        <v>2143</v>
+      </c>
+      <c r="H676" t="s">
+        <v>2144</v>
+      </c>
+      <c r="I676" t="s">
+        <v>2145</v>
+      </c>
+      <c r="J676" t="s">
+        <v>2124</v>
+      </c>
+      <c r="K676" t="s">
+        <v>2125</v>
+      </c>
+      <c r="L676" t="s">
+        <v>2126</v>
+      </c>
+      <c r="M676" t="s">
+        <v>2127</v>
+      </c>
+      <c r="N676" t="s">
+        <v>2128</v>
+      </c>
+      <c r="O676" t="s">
+        <v>2129</v>
+      </c>
+      <c r="P676" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="677" spans="1:16">
+      <c r="A677" t="s">
+        <v>16</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C677" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D677" t="s">
+        <v>564</v>
+      </c>
+      <c r="E677" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F677" t="s">
+        <v>2147</v>
+      </c>
+      <c r="G677" t="s">
+        <v>2148</v>
+      </c>
+      <c r="H677" t="s">
+        <v>2149</v>
+      </c>
+      <c r="I677" t="s">
+        <v>2150</v>
+      </c>
+      <c r="J677" t="s">
+        <v>2151</v>
+      </c>
+      <c r="K677" t="s">
+        <v>37</v>
+      </c>
+      <c r="L677" t="s">
+        <v>37</v>
+      </c>
+      <c r="M677" t="s">
+        <v>37</v>
+      </c>
+      <c r="N677" t="s">
+        <v>37</v>
+      </c>
+      <c r="O677" t="s">
+        <v>37</v>
+      </c>
+      <c r="P677" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="678" spans="1:16">
+      <c r="A678" t="s">
+        <v>16</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C678" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D678" t="s">
+        <v>564</v>
+      </c>
+      <c r="E678" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F678" t="s">
+        <v>2153</v>
+      </c>
+      <c r="G678" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H678" t="s">
+        <v>2155</v>
+      </c>
+      <c r="I678" t="s">
+        <v>2156</v>
+      </c>
+      <c r="J678" t="s">
+        <v>2151</v>
+      </c>
+      <c r="K678" t="s">
+        <v>37</v>
+      </c>
+      <c r="L678" t="s">
+        <v>37</v>
+      </c>
+      <c r="M678" t="s">
+        <v>37</v>
+      </c>
+      <c r="N678" t="s">
+        <v>37</v>
+      </c>
+      <c r="O678" t="s">
+        <v>37</v>
+      </c>
+      <c r="P678" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="679" spans="1:16">
+      <c r="A679" t="s">
+        <v>16</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C679" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D679" t="s">
+        <v>564</v>
+      </c>
+      <c r="E679" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F679" t="s">
+        <v>2158</v>
+      </c>
+      <c r="G679" t="s">
+        <v>2159</v>
+      </c>
+      <c r="H679" t="s">
+        <v>2160</v>
+      </c>
+      <c r="I679" t="s">
+        <v>2161</v>
+      </c>
+      <c r="J679" t="s">
+        <v>2162</v>
+      </c>
+      <c r="K679" t="s">
+        <v>37</v>
+      </c>
+      <c r="L679" t="s">
+        <v>37</v>
+      </c>
+      <c r="M679" t="s">
+        <v>37</v>
+      </c>
+      <c r="N679" t="s">
+        <v>37</v>
+      </c>
+      <c r="O679" t="s">
+        <v>37</v>
+      </c>
+      <c r="P679" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="680" spans="1:16">
+      <c r="A680" t="s">
+        <v>16</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C680" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D680" t="s">
+        <v>564</v>
+      </c>
+      <c r="E680" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F680" t="s">
+        <v>2164</v>
+      </c>
+      <c r="G680" t="s">
+        <v>2165</v>
+      </c>
+      <c r="H680" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I680" t="s">
+        <v>2167</v>
+      </c>
+      <c r="J680" t="s">
+        <v>2168</v>
+      </c>
+      <c r="K680" t="s">
+        <v>37</v>
+      </c>
+      <c r="L680" t="s">
+        <v>37</v>
+      </c>
+      <c r="M680" t="s">
+        <v>37</v>
+      </c>
+      <c r="N680" t="s">
+        <v>37</v>
+      </c>
+      <c r="O680" t="s">
+        <v>37</v>
+      </c>
+      <c r="P680" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="681" spans="1:16">
+      <c r="A681" t="s">
+        <v>16</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C681" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D681" t="s">
+        <v>564</v>
+      </c>
+      <c r="E681" t="s">
+        <v>2169</v>
+      </c>
+      <c r="F681" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G681" t="s">
+        <v>2171</v>
+      </c>
+      <c r="H681" t="s">
+        <v>2172</v>
+      </c>
+      <c r="I681" t="s">
+        <v>2173</v>
+      </c>
+      <c r="J681" t="s">
+        <v>2174</v>
+      </c>
+      <c r="K681" t="s">
+        <v>37</v>
+      </c>
+      <c r="L681" t="s">
+        <v>37</v>
+      </c>
+      <c r="M681" t="s">
+        <v>37</v>
+      </c>
+      <c r="N681" t="s">
+        <v>37</v>
+      </c>
+      <c r="O681" t="s">
+        <v>37</v>
+      </c>
+      <c r="P681" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="682" spans="1:16">
+      <c r="A682" t="s">
+        <v>16</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D682" t="s">
+        <v>753</v>
+      </c>
+      <c r="E682" t="s">
+        <v>765</v>
+      </c>
+      <c r="F682" t="s">
+        <v>193</v>
+      </c>
+      <c r="G682" t="s">
+        <v>2175</v>
+      </c>
+      <c r="H682" t="s">
+        <v>768</v>
+      </c>
+      <c r="I682" t="s">
+        <v>769</v>
+      </c>
+      <c r="J682" t="s">
+        <v>37</v>
+      </c>
+      <c r="K682" t="s">
+        <v>770</v>
+      </c>
+      <c r="L682" t="s">
+        <v>771</v>
+      </c>
+      <c r="M682" t="s">
+        <v>772</v>
+      </c>
+      <c r="N682" t="s">
+        <v>773</v>
+      </c>
+      <c r="O682" t="s">
+        <v>774</v>
+      </c>
+      <c r="P682" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="683" spans="1:16">
+      <c r="A683" t="s">
+        <v>16</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C683" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D683" t="s">
+        <v>753</v>
+      </c>
+      <c r="E683" t="s">
+        <v>124</v>
+      </c>
+      <c r="F683" t="s">
+        <v>125</v>
+      </c>
+      <c r="G683" t="s">
+        <v>2176</v>
+      </c>
+      <c r="H683" t="s">
+        <v>127</v>
+      </c>
+      <c r="I683" t="s">
+        <v>128</v>
+      </c>
+      <c r="J683" t="s">
+        <v>37</v>
+      </c>
+      <c r="K683" t="s">
+        <v>785</v>
+      </c>
+      <c r="L683" t="s">
+        <v>129</v>
+      </c>
+      <c r="M683" t="s">
+        <v>130</v>
+      </c>
+      <c r="N683" t="s">
+        <v>131</v>
+      </c>
+      <c r="O683" t="s">
+        <v>132</v>
+      </c>
+      <c r="P683" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="684" spans="1:16">
+      <c r="A684" t="s">
+        <v>16</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C684" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D684" t="s">
+        <v>753</v>
+      </c>
+      <c r="E684" t="s">
+        <v>754</v>
+      </c>
+      <c r="F684" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G684" t="s">
+        <v>2178</v>
+      </c>
+      <c r="H684" t="s">
+        <v>757</v>
+      </c>
+      <c r="I684" t="s">
+        <v>758</v>
+      </c>
+      <c r="J684" t="s">
+        <v>759</v>
+      </c>
+      <c r="K684" t="s">
+        <v>760</v>
+      </c>
+      <c r="L684" t="s">
+        <v>761</v>
+      </c>
+      <c r="M684" t="s">
+        <v>762</v>
+      </c>
+      <c r="N684" t="s">
+        <v>763</v>
+      </c>
+      <c r="O684" t="s">
+        <v>764</v>
+      </c>
+      <c r="P684" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="685" spans="1:16">
+      <c r="A685" t="s">
+        <v>16</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C685" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D685" t="s">
+        <v>753</v>
+      </c>
+      <c r="E685" t="s">
+        <v>70</v>
+      </c>
+      <c r="F685" t="s">
+        <v>71</v>
+      </c>
+      <c r="G685" t="s">
+        <v>2179</v>
+      </c>
+      <c r="H685" t="s">
+        <v>73</v>
+      </c>
+      <c r="I685" t="s">
+        <v>74</v>
+      </c>
+      <c r="J685" t="s">
+        <v>75</v>
+      </c>
+      <c r="K685" t="s">
+        <v>76</v>
+      </c>
+      <c r="L685" t="s">
+        <v>77</v>
+      </c>
+      <c r="M685" t="s">
+        <v>78</v>
+      </c>
+      <c r="N685" t="s">
+        <v>79</v>
+      </c>
+      <c r="O685" t="s">
+        <v>80</v>
+      </c>
+      <c r="P685" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="686" spans="1:16">
+      <c r="A686" t="s">
+        <v>16</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C686" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D686" t="s">
+        <v>753</v>
+      </c>
+      <c r="E686" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F686" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G686" t="s">
+        <v>2181</v>
+      </c>
+      <c r="H686" t="s">
+        <v>789</v>
+      </c>
+      <c r="I686" t="s">
+        <v>790</v>
+      </c>
+      <c r="J686" t="s">
+        <v>37</v>
+      </c>
+      <c r="K686" t="s">
+        <v>791</v>
+      </c>
+      <c r="L686" t="s">
+        <v>792</v>
+      </c>
+      <c r="M686" t="s">
+        <v>793</v>
+      </c>
+      <c r="N686" t="s">
+        <v>794</v>
+      </c>
+      <c r="O686" t="s">
+        <v>795</v>
+      </c>
+      <c r="P686" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="687" spans="1:16">
+      <c r="A687" t="s">
+        <v>16</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C687" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D687" t="s">
+        <v>753</v>
+      </c>
+      <c r="E687" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F687" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G687" t="s">
+        <v>2182</v>
+      </c>
+      <c r="H687" t="s">
+        <v>821</v>
+      </c>
+      <c r="I687" t="s">
+        <v>1616</v>
+      </c>
+      <c r="J687" t="s">
+        <v>37</v>
+      </c>
+      <c r="K687" t="s">
+        <v>823</v>
+      </c>
+      <c r="L687" t="s">
+        <v>824</v>
+      </c>
+      <c r="M687" t="s">
+        <v>825</v>
+      </c>
+      <c r="N687" t="s">
+        <v>826</v>
+      </c>
+      <c r="O687" t="s">
+        <v>827</v>
+      </c>
+      <c r="P687" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="688" spans="1:16">
+      <c r="A688" t="s">
+        <v>16</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C688" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D688" t="s">
+        <v>753</v>
+      </c>
+      <c r="E688" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F688" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G688" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H688" t="s">
+        <v>798</v>
+      </c>
+      <c r="I688" t="s">
+        <v>799</v>
+      </c>
+      <c r="J688" t="s">
+        <v>800</v>
+      </c>
+      <c r="K688" t="s">
+        <v>801</v>
+      </c>
+      <c r="L688" t="s">
+        <v>802</v>
+      </c>
+      <c r="M688" t="s">
+        <v>803</v>
+      </c>
+      <c r="N688" t="s">
+        <v>804</v>
+      </c>
+      <c r="O688" t="s">
+        <v>805</v>
+      </c>
+      <c r="P688" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="689" spans="1:16">
+      <c r="A689" t="s">
+        <v>16</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C689" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D689" t="s">
+        <v>753</v>
+      </c>
+      <c r="E689" t="s">
+        <v>830</v>
+      </c>
+      <c r="F689" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G689" t="s">
+        <v>2186</v>
+      </c>
+      <c r="H689" t="s">
+        <v>833</v>
+      </c>
+      <c r="I689" t="s">
+        <v>834</v>
+      </c>
+      <c r="J689" t="s">
+        <v>37</v>
+      </c>
+      <c r="K689" t="s">
+        <v>835</v>
+      </c>
+      <c r="L689" t="s">
+        <v>836</v>
+      </c>
+      <c r="M689" t="s">
+        <v>837</v>
+      </c>
+      <c r="N689" t="s">
+        <v>838</v>
+      </c>
+      <c r="O689" t="s">
+        <v>839</v>
+      </c>
+      <c r="P689" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="690" spans="1:16">
+      <c r="A690" t="s">
+        <v>16</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C690" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D690" t="s">
+        <v>753</v>
+      </c>
+      <c r="E690" t="s">
+        <v>959</v>
+      </c>
+      <c r="F690" t="s">
+        <v>82</v>
+      </c>
+      <c r="G690" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H690" t="s">
+        <v>84</v>
+      </c>
+      <c r="I690" t="s">
+        <v>36</v>
+      </c>
+      <c r="J690" t="s">
+        <v>37</v>
+      </c>
+      <c r="K690" t="s">
+        <v>38</v>
+      </c>
+      <c r="L690" t="s">
+        <v>39</v>
+      </c>
+      <c r="M690" t="s">
+        <v>40</v>
+      </c>
+      <c r="N690" t="s">
+        <v>41</v>
+      </c>
+      <c r="O690" t="s">
+        <v>42</v>
+      </c>
+      <c r="P690" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="691" spans="1:16">
+      <c r="A691" t="s">
+        <v>16</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C691" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D691" t="s">
+        <v>753</v>
+      </c>
+      <c r="E691" t="s">
+        <v>806</v>
+      </c>
+      <c r="F691" t="s">
+        <v>807</v>
+      </c>
+      <c r="G691" t="s">
+        <v>2188</v>
+      </c>
+      <c r="H691" t="s">
+        <v>809</v>
+      </c>
+      <c r="I691" t="s">
+        <v>810</v>
+      </c>
+      <c r="J691" t="s">
+        <v>37</v>
+      </c>
+      <c r="K691" t="s">
+        <v>37</v>
+      </c>
+      <c r="L691" t="s">
+        <v>37</v>
+      </c>
+      <c r="M691" t="s">
+        <v>37</v>
+      </c>
+      <c r="N691" t="s">
+        <v>37</v>
+      </c>
+      <c r="O691" t="s">
+        <v>37</v>
+      </c>
+      <c r="P691" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="692" spans="1:16">
+      <c r="A692" t="s">
+        <v>16</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C692" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D692" t="s">
+        <v>753</v>
+      </c>
+      <c r="E692" t="s">
+        <v>2189</v>
+      </c>
+      <c r="F692" t="s">
         <v>1947</v>
       </c>
-      <c r="H624" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I624" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="J624" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="K624" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="L624" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="M624" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="N624" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="O624" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="625" s="1" customFormat="1" spans="1:15">
-      <c r="A625" t="s">
-        <v>16</v>
-      </c>
-      <c r="B625" s="1" t="s">
+      <c r="G692" t="s">
+        <v>2190</v>
+      </c>
+      <c r="H692" t="s">
+        <v>146</v>
+      </c>
+      <c r="I692" t="s">
+        <v>147</v>
+      </c>
+      <c r="J692" t="s">
+        <v>31</v>
+      </c>
+      <c r="K692" t="s">
+        <v>1879</v>
+      </c>
+      <c r="L692" t="s">
+        <v>147</v>
+      </c>
+      <c r="M692" t="s">
+        <v>1880</v>
+      </c>
+      <c r="N692" t="s">
+        <v>1881</v>
+      </c>
+      <c r="O692" t="s">
+        <v>37</v>
+      </c>
+      <c r="P692" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="693" spans="1:16">
+      <c r="A693" t="s">
+        <v>16</v>
+      </c>
+      <c r="B693" t="s">
         <v>1894</v>
       </c>
-      <c r="C625" s="1" t="s">
+      <c r="C693" t="s">
         <v>1260</v>
       </c>
-      <c r="D625" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E625" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F625" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="G625" s="1" t="s">
-        <v>1948</v>
-      </c>
-      <c r="H625" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I625" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="J625" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K625" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="L625" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="M625" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="N625" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="O625" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="626" s="1" customFormat="1" spans="1:15">
-      <c r="A626" t="s">
-        <v>16</v>
-      </c>
-      <c r="B626" s="1" t="s">
+      <c r="D693" t="s">
+        <v>753</v>
+      </c>
+      <c r="E693" t="s">
+        <v>828</v>
+      </c>
+      <c r="F693" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G693" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H693" t="s">
+        <v>62</v>
+      </c>
+      <c r="I693" t="s">
+        <v>63</v>
+      </c>
+      <c r="J693" t="s">
+        <v>64</v>
+      </c>
+      <c r="K693" t="s">
+        <v>65</v>
+      </c>
+      <c r="L693" t="s">
+        <v>66</v>
+      </c>
+      <c r="M693" t="s">
+        <v>67</v>
+      </c>
+      <c r="N693" t="s">
+        <v>68</v>
+      </c>
+      <c r="O693" t="s">
+        <v>69</v>
+      </c>
+      <c r="P693" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="694" spans="1:16">
+      <c r="A694" t="s">
+        <v>16</v>
+      </c>
+      <c r="B694" t="s">
         <v>1894</v>
       </c>
-      <c r="C626" s="1" t="s">
+      <c r="C694" t="s">
         <v>1260</v>
       </c>
-      <c r="D626" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E626" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F626" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="G626" s="1" t="s">
-        <v>1949</v>
-      </c>
-      <c r="H626" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I626" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="J626" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K626" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="L626" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="M626" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="N626" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="O626" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="627" s="1" customFormat="1" spans="1:15">
-      <c r="A627" t="s">
-        <v>16</v>
-      </c>
-      <c r="B627" s="1" t="s">
+      <c r="D694" t="s">
+        <v>753</v>
+      </c>
+      <c r="E694" t="s">
+        <v>2193</v>
+      </c>
+      <c r="F694" t="s">
+        <v>555</v>
+      </c>
+      <c r="G694" t="s">
+        <v>2194</v>
+      </c>
+      <c r="H694" t="s">
+        <v>136</v>
+      </c>
+      <c r="I694" t="s">
+        <v>137</v>
+      </c>
+      <c r="J694" t="s">
+        <v>37</v>
+      </c>
+      <c r="K694" t="s">
+        <v>2195</v>
+      </c>
+      <c r="L694" t="s">
+        <v>2196</v>
+      </c>
+      <c r="M694" t="s">
+        <v>2197</v>
+      </c>
+      <c r="N694" t="s">
+        <v>2198</v>
+      </c>
+      <c r="O694" t="s">
+        <v>2199</v>
+      </c>
+      <c r="P694" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="695" spans="1:16">
+      <c r="A695" t="s">
+        <v>16</v>
+      </c>
+      <c r="B695" t="s">
         <v>1894</v>
       </c>
-      <c r="C627" s="1" t="s">
+      <c r="C695" t="s">
         <v>1260</v>
       </c>
-      <c r="D627" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E627" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F627" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="G627" s="1" t="s">
-        <v>1950</v>
-      </c>
-      <c r="H627" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I627" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="J627" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K627" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L627" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="M627" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="N627" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="O627" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="628" s="1" customFormat="1" spans="1:15">
-      <c r="A628" t="s">
-        <v>16</v>
-      </c>
-      <c r="B628" s="1" t="s">
+      <c r="D695" t="s">
+        <v>753</v>
+      </c>
+      <c r="E695" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F695" t="s">
+        <v>2201</v>
+      </c>
+      <c r="G695" t="s">
+        <v>2202</v>
+      </c>
+      <c r="H695" t="s">
+        <v>2203</v>
+      </c>
+      <c r="I695" t="s">
+        <v>2204</v>
+      </c>
+      <c r="J695" t="s">
+        <v>37</v>
+      </c>
+      <c r="K695" t="s">
+        <v>2205</v>
+      </c>
+      <c r="L695" t="s">
+        <v>2206</v>
+      </c>
+      <c r="M695" t="s">
+        <v>2207</v>
+      </c>
+      <c r="N695" t="s">
+        <v>2208</v>
+      </c>
+      <c r="O695" t="s">
+        <v>2209</v>
+      </c>
+      <c r="P695" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="696" spans="1:16">
+      <c r="A696" t="s">
+        <v>16</v>
+      </c>
+      <c r="B696" t="s">
         <v>1894</v>
       </c>
-      <c r="C628" s="1" t="s">
+      <c r="C696" t="s">
         <v>1260</v>
       </c>
-      <c r="D628" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E628" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F628" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="G628" s="1" t="s">
-        <v>1951</v>
-      </c>
-      <c r="H628" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I628" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J628" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="K628" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="L628" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="M628" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="N628" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="O628" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="629" s="1" customFormat="1" spans="1:15">
-      <c r="A629" t="s">
-        <v>16</v>
-      </c>
-      <c r="B629" s="1" t="s">
+      <c r="D696" t="s">
+        <v>753</v>
+      </c>
+      <c r="E696" t="s">
+        <v>857</v>
+      </c>
+      <c r="F696" t="s">
+        <v>807</v>
+      </c>
+      <c r="G696" t="s">
+        <v>2210</v>
+      </c>
+      <c r="H696" t="s">
+        <v>859</v>
+      </c>
+      <c r="I696" t="s">
+        <v>860</v>
+      </c>
+      <c r="J696" t="s">
+        <v>37</v>
+      </c>
+      <c r="K696" t="s">
+        <v>861</v>
+      </c>
+      <c r="L696" t="s">
+        <v>862</v>
+      </c>
+      <c r="M696" t="s">
+        <v>863</v>
+      </c>
+      <c r="N696" t="s">
+        <v>864</v>
+      </c>
+      <c r="O696" t="s">
+        <v>865</v>
+      </c>
+      <c r="P696" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="697" spans="1:16">
+      <c r="A697" t="s">
+        <v>16</v>
+      </c>
+      <c r="B697" t="s">
         <v>1894</v>
       </c>
-      <c r="C629" s="1" t="s">
+      <c r="C697" t="s">
         <v>1260</v>
       </c>
-      <c r="D629" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E629" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F629" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G629" s="1" t="s">
-        <v>1952</v>
-      </c>
-      <c r="H629" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="I629" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J629" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K629" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L629" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="M629" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="N629" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="O629" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="630" s="1" customFormat="1" spans="1:15">
-      <c r="A630" t="s">
-        <v>16</v>
-      </c>
-      <c r="B630" s="1" t="s">
+      <c r="D697" t="s">
+        <v>753</v>
+      </c>
+      <c r="E697" t="s">
+        <v>2211</v>
+      </c>
+      <c r="F697" t="s">
+        <v>2212</v>
+      </c>
+      <c r="G697" t="s">
+        <v>2213</v>
+      </c>
+      <c r="H697" t="s">
+        <v>2214</v>
+      </c>
+      <c r="I697" t="s">
+        <v>2215</v>
+      </c>
+      <c r="J697" t="s">
+        <v>37</v>
+      </c>
+      <c r="K697" t="s">
+        <v>2216</v>
+      </c>
+      <c r="L697" t="s">
+        <v>2217</v>
+      </c>
+      <c r="M697" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N697" t="s">
+        <v>1550</v>
+      </c>
+      <c r="O697" t="s">
+        <v>1551</v>
+      </c>
+      <c r="P697" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="698" spans="1:16">
+      <c r="A698" t="s">
+        <v>16</v>
+      </c>
+      <c r="B698" t="s">
         <v>1894</v>
       </c>
-      <c r="C630" s="1" t="s">
+      <c r="C698" t="s">
         <v>1260</v>
       </c>
-      <c r="D630" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E630" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="F630" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G630" s="1" t="s">
-        <v>1953</v>
-      </c>
-      <c r="H630" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="I630" s="1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="J630" s="1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="K630" s="1" t="s">
-        <v>1334</v>
-      </c>
-      <c r="L630" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="M630" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="N630" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="O630" s="1" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="631" s="1" customFormat="1" spans="1:15">
-      <c r="A631" t="s">
-        <v>16</v>
-      </c>
-      <c r="B631" s="1" t="s">
+      <c r="D698" t="s">
+        <v>753</v>
+      </c>
+      <c r="E698" t="s">
+        <v>2218</v>
+      </c>
+      <c r="F698" t="s">
+        <v>2219</v>
+      </c>
+      <c r="G698" t="s">
+        <v>2220</v>
+      </c>
+      <c r="H698" t="s">
+        <v>2221</v>
+      </c>
+      <c r="I698" t="s">
+        <v>758</v>
+      </c>
+      <c r="J698" t="s">
+        <v>759</v>
+      </c>
+      <c r="K698" t="s">
+        <v>2222</v>
+      </c>
+      <c r="L698" t="s">
+        <v>2223</v>
+      </c>
+      <c r="M698" t="s">
+        <v>2224</v>
+      </c>
+      <c r="N698" t="s">
+        <v>2225</v>
+      </c>
+      <c r="O698" t="s">
+        <v>2226</v>
+      </c>
+      <c r="P698" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="699" spans="1:16">
+      <c r="A699" t="s">
+        <v>16</v>
+      </c>
+      <c r="B699" t="s">
         <v>1894</v>
       </c>
-      <c r="C631" s="1" t="s">
+      <c r="C699" t="s">
         <v>1260</v>
       </c>
-      <c r="D631" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E631" s="1" t="s">
-        <v>1954</v>
-      </c>
-      <c r="F631" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G631" s="1" t="s">
-        <v>1955</v>
-      </c>
-      <c r="H631" s="1" t="s">
-        <v>1956</v>
-      </c>
-      <c r="I631" s="1" t="s">
-        <v>1957</v>
-      </c>
-      <c r="J631" s="1" t="s">
-        <v>1958</v>
-      </c>
-      <c r="K631" s="1" t="s">
-        <v>1959</v>
-      </c>
-      <c r="L631" s="1" t="s">
-        <v>1960</v>
-      </c>
-      <c r="M631" s="1" t="s">
-        <v>1961</v>
-      </c>
-      <c r="N631" s="1" t="s">
-        <v>1962</v>
-      </c>
-      <c r="O631" s="1" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="632" s="1" customFormat="1" spans="1:15">
-      <c r="A632" t="s">
-        <v>16</v>
-      </c>
-      <c r="B632" s="1" t="s">
+      <c r="D699" t="s">
+        <v>753</v>
+      </c>
+      <c r="E699" t="s">
+        <v>49</v>
+      </c>
+      <c r="F699" t="s">
+        <v>1899</v>
+      </c>
+      <c r="G699" t="s">
+        <v>2227</v>
+      </c>
+      <c r="H699" t="s">
+        <v>52</v>
+      </c>
+      <c r="I699" t="s">
+        <v>53</v>
+      </c>
+      <c r="J699" t="s">
+        <v>37</v>
+      </c>
+      <c r="K699" t="s">
+        <v>54</v>
+      </c>
+      <c r="L699" t="s">
+        <v>55</v>
+      </c>
+      <c r="M699" t="s">
+        <v>56</v>
+      </c>
+      <c r="N699" t="s">
+        <v>57</v>
+      </c>
+      <c r="O699" t="s">
+        <v>58</v>
+      </c>
+      <c r="P699" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="700" spans="1:16">
+      <c r="A700" t="s">
+        <v>16</v>
+      </c>
+      <c r="B700" t="s">
         <v>1894</v>
       </c>
-      <c r="C632" s="1" t="s">
+      <c r="C700" t="s">
         <v>1260</v>
       </c>
-      <c r="D632" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E632" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F632" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G632" s="1" t="s">
-        <v>1964</v>
-      </c>
-      <c r="H632" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I632" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J632" s="1"/>
-      <c r="K632" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L632" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="M632" s="1" t="s">
+      <c r="D700" t="s">
+        <v>753</v>
+      </c>
+      <c r="E700" t="s">
+        <v>853</v>
+      </c>
+      <c r="F700" t="s">
+        <v>86</v>
+      </c>
+      <c r="G700" t="s">
+        <v>2228</v>
+      </c>
+      <c r="H700" t="s">
+        <v>856</v>
+      </c>
+      <c r="I700" t="s">
+        <v>89</v>
+      </c>
+      <c r="J700" t="s">
         <v>37</v>
       </c>
-      <c r="N632" s="1" t="s">
+      <c r="K700" t="s">
+        <v>90</v>
+      </c>
+      <c r="L700" t="s">
+        <v>91</v>
+      </c>
+      <c r="M700" t="s">
+        <v>92</v>
+      </c>
+      <c r="N700" t="s">
+        <v>93</v>
+      </c>
+      <c r="O700" t="s">
+        <v>94</v>
+      </c>
+      <c r="P700" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="701" spans="1:16">
+      <c r="A701" t="s">
+        <v>16</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C701" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D701" t="s">
+        <v>753</v>
+      </c>
+      <c r="E701" t="s">
+        <v>840</v>
+      </c>
+      <c r="F701" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G701" t="s">
+        <v>2229</v>
+      </c>
+      <c r="H701" t="s">
+        <v>165</v>
+      </c>
+      <c r="I701" t="s">
+        <v>166</v>
+      </c>
+      <c r="J701" t="s">
+        <v>167</v>
+      </c>
+      <c r="K701" t="s">
+        <v>168</v>
+      </c>
+      <c r="L701" t="s">
+        <v>169</v>
+      </c>
+      <c r="M701" t="s">
+        <v>170</v>
+      </c>
+      <c r="N701" t="s">
+        <v>171</v>
+      </c>
+      <c r="O701" t="s">
         <v>37</v>
       </c>
-      <c r="O632" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="633" s="1" customFormat="1" spans="1:15">
-      <c r="A633" t="s">
-        <v>16</v>
-      </c>
-      <c r="B633" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C633" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D633" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E633" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="F633" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="G633" s="1" t="s">
-        <v>1965</v>
-      </c>
-      <c r="H633" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="I633" s="1" t="s">
-        <v>1966</v>
-      </c>
-      <c r="J633" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K633" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L633" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M633" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N633" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O633" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="634" s="1" customFormat="1" spans="1:15">
-      <c r="A634" t="s">
-        <v>16</v>
-      </c>
-      <c r="B634" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C634" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D634" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E634" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F634" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G634" s="1" t="s">
-        <v>1967</v>
-      </c>
-      <c r="H634" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="I634" s="1" t="s">
-        <v>1968</v>
-      </c>
-      <c r="J634" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="K634" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L634" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M634" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N634" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O634" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="635" s="1" customFormat="1" spans="1:15">
-      <c r="A635" t="s">
-        <v>16</v>
-      </c>
-      <c r="B635" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C635" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D635" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E635" s="1" t="s">
-        <v>1969</v>
-      </c>
-      <c r="F635" s="1" t="s">
-        <v>1970</v>
-      </c>
-      <c r="G635" s="1" t="s">
-        <v>1971</v>
-      </c>
-      <c r="H635" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="I635" s="1" t="s">
-        <v>1972</v>
-      </c>
-      <c r="J635" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="K635" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="L635" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="M635" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="N635" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="O635" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="636" s="1" customFormat="1" spans="1:15">
-      <c r="A636" t="s">
-        <v>16</v>
-      </c>
-      <c r="B636" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C636" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D636" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E636" s="1" t="s">
-        <v>1973</v>
-      </c>
-      <c r="F636" s="1" t="s">
-        <v>1974</v>
-      </c>
-      <c r="G636" s="1" t="s">
-        <v>1975</v>
-      </c>
-      <c r="H636" s="1" t="s">
-        <v>1976</v>
-      </c>
-      <c r="I636" s="1" t="s">
-        <v>1968</v>
-      </c>
-      <c r="J636" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="K636" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="L636" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="M636" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="N636" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="O636" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="637" s="1" customFormat="1" spans="1:15">
-      <c r="A637" t="s">
-        <v>16</v>
-      </c>
-      <c r="B637" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C637" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D637" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E637" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F637" s="1">
-        <v>673.75</v>
-      </c>
-      <c r="G637" s="1" t="s">
-        <v>1977</v>
-      </c>
-      <c r="H637" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I637" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J637" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K637" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="L637" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M637" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="N637" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="O637" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="638" s="1" customFormat="1" spans="1:15">
-      <c r="A638" t="s">
-        <v>16</v>
-      </c>
-      <c r="B638" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C638" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D638" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E638" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F638" s="1">
-        <v>673.75</v>
-      </c>
-      <c r="G638" s="1" t="s">
-        <v>1978</v>
-      </c>
-      <c r="H638" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I638" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J638" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K638" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="L638" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M638" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="N638" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="O638" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="639" s="1" customFormat="1" spans="1:15">
-      <c r="A639" t="s">
-        <v>16</v>
-      </c>
-      <c r="B639" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C639" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D639" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E639" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F639" s="1">
-        <v>673.75</v>
-      </c>
-      <c r="G639" s="1" t="s">
-        <v>1979</v>
-      </c>
-      <c r="H639" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I639" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J639" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K639" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="L639" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M639" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="N639" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="O639" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="640" s="1" customFormat="1" spans="1:15">
-      <c r="A640" t="s">
-        <v>16</v>
-      </c>
-      <c r="B640" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C640" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D640" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E640" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F640" s="1">
-        <v>673.75</v>
-      </c>
-      <c r="G640" s="1" t="s">
-        <v>1980</v>
-      </c>
-      <c r="H640" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I640" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J640" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K640" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="L640" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M640" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="N640" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="O640" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="641" s="1" customFormat="1" spans="1:15">
-      <c r="A641" t="s">
-        <v>16</v>
-      </c>
-      <c r="B641" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C641" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D641" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E641" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F641" s="1">
-        <v>673.75</v>
-      </c>
-      <c r="G641" s="1" t="s">
-        <v>1981</v>
-      </c>
-      <c r="H641" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I641" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="J641" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K641" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="L641" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M641" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="N641" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="O641" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="642" s="1" customFormat="1" spans="1:15">
-      <c r="A642" t="s">
-        <v>16</v>
-      </c>
-      <c r="B642" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C642" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D642" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E642" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F642" s="1">
-        <v>50.31</v>
-      </c>
-      <c r="G642" s="1" t="s">
-        <v>1982</v>
-      </c>
-      <c r="H642" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="I642" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="J642" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="K642" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="L642" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="M642" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="N642" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="O642" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="643" s="1" customFormat="1" spans="1:15">
-      <c r="A643" t="s">
-        <v>16</v>
-      </c>
-      <c r="B643" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C643" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D643" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E643" s="1" t="s">
-        <v>1983</v>
-      </c>
-      <c r="F643" s="1">
-        <v>50.25</v>
-      </c>
-      <c r="G643" s="1" t="s">
-        <v>1984</v>
-      </c>
-      <c r="H643" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I643" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="J643" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="K643" s="1" t="s">
-        <v>1985</v>
-      </c>
-      <c r="L643" s="1" t="s">
-        <v>1986</v>
-      </c>
-      <c r="M643" s="1" t="s">
-        <v>1987</v>
-      </c>
-      <c r="N643" s="1" t="s">
-        <v>1988</v>
-      </c>
-      <c r="O643" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="644" s="1" customFormat="1" spans="1:15">
-      <c r="A644" t="s">
-        <v>16</v>
-      </c>
-      <c r="B644" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C644" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D644" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E644" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F644" s="1">
-        <v>99.95</v>
-      </c>
-      <c r="G644" s="1" t="s">
-        <v>1989</v>
-      </c>
-      <c r="H644" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="I644" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J644" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="K644" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L644" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="M644" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="N644" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="O644" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="645" s="1" customFormat="1" spans="1:15">
-      <c r="A645" t="s">
-        <v>16</v>
-      </c>
-      <c r="B645" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C645" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D645" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E645" s="1" t="s">
-        <v>1735</v>
-      </c>
-      <c r="F645" s="1">
-        <v>59.5</v>
-      </c>
-      <c r="G645" s="1" t="s">
-        <v>1990</v>
-      </c>
-      <c r="H645" s="1" t="s">
-        <v>1738</v>
-      </c>
-      <c r="I645" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="J645" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="K645" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="L645" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="M645" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="N645" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="O645" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="646" s="1" customFormat="1" spans="1:16">
-      <c r="A646" t="s">
-        <v>16</v>
-      </c>
-      <c r="B646" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C646" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D646" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E646" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F646" s="1">
-        <v>60.86</v>
-      </c>
-      <c r="G646" s="1" t="s">
-        <v>1991</v>
-      </c>
-      <c r="H646" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="I646" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="J646" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="K646" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="L646" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="M646" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="N646" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="O646" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="P646" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="647" s="1" customFormat="1" spans="1:15">
-      <c r="A647" t="s">
-        <v>16</v>
-      </c>
-      <c r="B647" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C647" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D647" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E647" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F647" s="1">
-        <v>119</v>
-      </c>
-      <c r="G647" s="1" t="s">
-        <v>1992</v>
-      </c>
-      <c r="H647" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="I647" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="J647" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="K647" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="L647" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="M647" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="N647" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="O647" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="648" s="1" customFormat="1" spans="1:15">
-      <c r="A648" t="s">
-        <v>16</v>
-      </c>
-      <c r="B648" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C648" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D648" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E648" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F648" s="1">
-        <v>107.3</v>
-      </c>
-      <c r="G648" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="H648" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="I648" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="J648" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="K648" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="L648" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="M648" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="N648" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="O648" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="649" s="1" customFormat="1" spans="1:15">
-      <c r="A649" t="s">
-        <v>16</v>
-      </c>
-      <c r="B649" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C649" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D649" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E649" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="F649" s="1">
-        <v>48.85</v>
-      </c>
-      <c r="G649" s="1" t="s">
-        <v>1994</v>
-      </c>
-      <c r="H649" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="I649" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="J649" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="K649" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="L649" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="M649" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="N649" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="O649" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="650" s="1" customFormat="1" spans="1:15">
-      <c r="A650" t="s">
-        <v>16</v>
-      </c>
-      <c r="B650" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C650" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D650" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E650" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="F650" s="1">
-        <v>85.93</v>
-      </c>
-      <c r="G650" s="1" t="s">
-        <v>1995</v>
-      </c>
-      <c r="H650" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="I650" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="J650" s="1" t="s">
-        <v>1517</v>
-      </c>
-      <c r="K650" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="L650" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="M650" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="N650" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="O650" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="651" s="1" customFormat="1" spans="1:15">
-      <c r="A651" t="s">
-        <v>16</v>
-      </c>
-      <c r="B651" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C651" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D651" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E651" s="1" t="s">
-        <v>1996</v>
-      </c>
-      <c r="F651" s="1">
-        <v>79.95</v>
-      </c>
-      <c r="G651" s="1" t="s">
-        <v>1997</v>
-      </c>
-      <c r="H651" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="I651" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J651" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="K651" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="L651" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="M651" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="N651" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="O651" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="652" s="1" customFormat="1" spans="1:15">
-      <c r="A652" t="s">
-        <v>16</v>
-      </c>
-      <c r="B652" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C652" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D652" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E652" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="F652" s="1">
-        <v>32.3</v>
-      </c>
-      <c r="G652" s="1" t="s">
-        <v>1998</v>
-      </c>
-      <c r="H652" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="I652" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="J652" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="K652" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="L652" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="M652" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="N652" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="O652" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="653" s="1" customFormat="1" spans="1:15">
-      <c r="A653" t="s">
-        <v>16</v>
-      </c>
-      <c r="B653" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C653" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D653" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E653" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F653" s="1">
-        <v>112.65</v>
-      </c>
-      <c r="G653" s="1" t="s">
-        <v>1999</v>
-      </c>
-      <c r="H653" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="I653" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="J653" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="K653" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="L653" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M653" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N653" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O653" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="654" s="1" customFormat="1" spans="1:15">
-      <c r="A654" t="s">
-        <v>16</v>
-      </c>
-      <c r="B654" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C654" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D654" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E654" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F654" s="1">
-        <v>96.71</v>
-      </c>
-      <c r="G654" s="1" t="s">
-        <v>2000</v>
-      </c>
-      <c r="H654" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="I654" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="J654" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="K654" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="L654" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="M654" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="N654" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="O654" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="655" s="1" customFormat="1" spans="1:15">
-      <c r="A655" t="s">
-        <v>16</v>
-      </c>
-      <c r="B655" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C655" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D655" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E655" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="F655" s="1">
-        <v>87.5</v>
-      </c>
-      <c r="G655" s="1" t="s">
-        <v>2001</v>
-      </c>
-      <c r="H655" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="I655" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="J655" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="K655" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="L655" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="M655" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="N655" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="O655" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="656" s="1" customFormat="1" spans="1:15">
-      <c r="A656" t="s">
-        <v>16</v>
-      </c>
-      <c r="B656" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C656" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D656" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E656" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F656" s="1">
-        <v>89.04</v>
-      </c>
-      <c r="G656" s="1" t="s">
-        <v>2002</v>
-      </c>
-      <c r="H656" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="I656" s="1" t="s">
-        <v>2003</v>
-      </c>
-      <c r="J656" s="1" t="s">
-        <v>2004</v>
-      </c>
-      <c r="K656" s="1" t="s">
-        <v>2005</v>
-      </c>
-      <c r="L656" s="1" t="s">
-        <v>2006</v>
-      </c>
-      <c r="M656" s="1" t="s">
-        <v>2007</v>
-      </c>
-      <c r="N656" s="1" t="s">
-        <v>2008</v>
-      </c>
-      <c r="O656" s="1" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="657" s="1" customFormat="1" spans="1:15">
-      <c r="A657" t="s">
-        <v>16</v>
-      </c>
-      <c r="B657" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C657" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D657" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E657" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="F657" s="1">
-        <v>67.99</v>
-      </c>
-      <c r="G657" s="1" t="s">
-        <v>2010</v>
-      </c>
-      <c r="H657" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="I657" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J657" s="1"/>
-      <c r="K657" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="L657" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="M657" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="N657" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="O657" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="658" s="1" customFormat="1" spans="1:15">
-      <c r="A658" t="s">
-        <v>16</v>
-      </c>
-      <c r="B658" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C658" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D658" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E658" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="F658" s="1">
-        <v>41.38</v>
-      </c>
-      <c r="G658" s="1" t="s">
-        <v>2011</v>
-      </c>
-      <c r="H658" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="I658" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="J658" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="K658" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="L658" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="M658" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="N658" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="O658" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="659" s="1" customFormat="1" spans="1:15">
-      <c r="A659" t="s">
-        <v>16</v>
-      </c>
-      <c r="B659" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C659" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D659" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E659" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="F659" s="1">
-        <v>86.13</v>
-      </c>
-      <c r="G659" s="1" t="s">
-        <v>2012</v>
-      </c>
-      <c r="H659" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="I659" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="J659" s="1" t="s">
-        <v>1527</v>
-      </c>
-      <c r="K659" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="L659" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="M659" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="N659" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="O659" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="660" s="1" customFormat="1" spans="1:15">
-      <c r="A660" t="s">
-        <v>16</v>
-      </c>
-      <c r="B660" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C660" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D660" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E660" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="F660" s="1">
-        <v>141.22</v>
-      </c>
-      <c r="G660" s="1" t="s">
-        <v>2013</v>
-      </c>
-      <c r="H660" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I660" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="J660" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="K660" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="L660" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="M660" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="N660" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="O660" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="661" s="1" customFormat="1" spans="1:15">
-      <c r="A661" t="s">
-        <v>16</v>
-      </c>
-      <c r="B661" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C661" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D661" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E661" s="1" t="s">
-        <v>1538</v>
-      </c>
-      <c r="F661" s="1">
-        <v>35.99</v>
-      </c>
-      <c r="G661" s="1" t="s">
-        <v>2014</v>
-      </c>
-      <c r="H661" s="1" t="s">
-        <v>1540</v>
-      </c>
-      <c r="I661" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="J661" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K661" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="L661" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="M661" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="N661" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="O661" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="662" s="1" customFormat="1" spans="1:15">
-      <c r="A662" t="s">
-        <v>16</v>
-      </c>
-      <c r="B662" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C662" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D662" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E662" s="1" t="s">
-        <v>2015</v>
-      </c>
-      <c r="F662" s="1">
-        <v>62.99</v>
-      </c>
-      <c r="G662" s="1" t="s">
-        <v>2016</v>
-      </c>
-      <c r="H662" s="1" t="s">
-        <v>2017</v>
-      </c>
-      <c r="I662" s="1" t="s">
-        <v>2018</v>
-      </c>
-      <c r="J662" s="1" t="s">
-        <v>2019</v>
-      </c>
-      <c r="K662" s="1" t="s">
-        <v>2020</v>
-      </c>
-      <c r="L662" s="1" t="s">
-        <v>2021</v>
-      </c>
-      <c r="M662" s="1" t="s">
-        <v>2022</v>
-      </c>
-      <c r="N662" s="1" t="s">
-        <v>2023</v>
-      </c>
-      <c r="O662" s="1" t="s">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="663" s="1" customFormat="1" spans="1:15">
-      <c r="A663" t="s">
-        <v>16</v>
-      </c>
-      <c r="B663" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C663" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D663" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E663" s="1" t="s">
-        <v>2025</v>
-      </c>
-      <c r="F663" s="1">
-        <v>62.99</v>
-      </c>
-      <c r="G663" s="1" t="s">
-        <v>2026</v>
-      </c>
-      <c r="H663" s="1" t="s">
-        <v>2027</v>
-      </c>
-      <c r="I663" s="1" t="s">
-        <v>2028</v>
-      </c>
-      <c r="J663" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K663" s="1" t="s">
-        <v>2029</v>
-      </c>
-      <c r="L663" s="1" t="s">
-        <v>2030</v>
-      </c>
-      <c r="M663" s="1" t="s">
-        <v>2031</v>
-      </c>
-      <c r="N663" s="1" t="s">
-        <v>2032</v>
-      </c>
-      <c r="O663" s="1" t="s">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="664" s="1" customFormat="1" spans="1:16">
-      <c r="A664" t="s">
-        <v>16</v>
-      </c>
-      <c r="B664" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C664" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D664" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E664" s="1" t="s">
-        <v>2034</v>
-      </c>
-      <c r="F664" s="1">
-        <v>22.55</v>
-      </c>
-      <c r="G664" s="1" t="s">
-        <v>2035</v>
-      </c>
-      <c r="H664" s="1" t="s">
-        <v>2036</v>
-      </c>
-      <c r="I664" s="1" t="s">
-        <v>2037</v>
-      </c>
-      <c r="J664" s="1" t="s">
-        <v>2038</v>
-      </c>
-      <c r="K664" s="1" t="s">
-        <v>2039</v>
-      </c>
-      <c r="L664" s="1" t="s">
-        <v>2040</v>
-      </c>
-      <c r="M664" s="1" t="s">
-        <v>2041</v>
-      </c>
-      <c r="N664" s="1" t="s">
-        <v>2042</v>
-      </c>
-      <c r="O664" s="1" t="s">
-        <v>2043</v>
-      </c>
-      <c r="P664" s="1" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="665" s="1" customFormat="1" spans="1:15">
-      <c r="A665" t="s">
-        <v>16</v>
-      </c>
-      <c r="B665" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C665" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D665" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E665" s="1" t="s">
-        <v>2045</v>
-      </c>
-      <c r="F665" s="1">
-        <v>38.09</v>
-      </c>
-      <c r="G665" s="1" t="s">
-        <v>2046</v>
-      </c>
-      <c r="H665" s="1" t="s">
-        <v>2047</v>
-      </c>
-      <c r="I665" s="1" t="s">
-        <v>2048</v>
-      </c>
-      <c r="J665" s="1"/>
-      <c r="K665" s="1" t="s">
-        <v>2049</v>
-      </c>
-      <c r="L665" s="1" t="s">
-        <v>2050</v>
-      </c>
-      <c r="M665" s="1" t="s">
-        <v>2051</v>
-      </c>
-      <c r="N665" s="1" t="s">
-        <v>2052</v>
-      </c>
-      <c r="O665" s="1" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="666" s="1" customFormat="1" spans="1:15">
-      <c r="A666" t="s">
-        <v>16</v>
-      </c>
-      <c r="B666" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C666" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D666" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E666" s="1" t="s">
-        <v>2054</v>
-      </c>
-      <c r="F666" s="1">
-        <v>9.99</v>
-      </c>
-      <c r="G666" s="1" t="s">
-        <v>2055</v>
-      </c>
-      <c r="H666" s="1" t="s">
-        <v>2056</v>
-      </c>
-      <c r="I666" s="1" t="s">
-        <v>2057</v>
-      </c>
-      <c r="J666" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K666" s="1" t="s">
-        <v>2058</v>
-      </c>
-      <c r="L666" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="M666" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="N666" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="O666" s="1" t="s">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="667" s="1" customFormat="1" spans="1:15">
-      <c r="A667" t="s">
-        <v>16</v>
-      </c>
-      <c r="B667" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C667" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D667" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E667" s="1" t="s">
-        <v>2060</v>
-      </c>
-      <c r="F667" s="1">
-        <v>47.97</v>
-      </c>
-      <c r="G667" s="1" t="s">
-        <v>2061</v>
-      </c>
-      <c r="H667" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I667" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="J667" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="K667" s="1" t="s">
-        <v>1985</v>
-      </c>
-      <c r="L667" s="1" t="s">
-        <v>1986</v>
-      </c>
-      <c r="M667" s="1" t="s">
-        <v>1987</v>
-      </c>
-      <c r="N667" s="1" t="s">
-        <v>1988</v>
-      </c>
-      <c r="O667" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="668" s="1" customFormat="1" spans="1:15">
-      <c r="A668" t="s">
-        <v>16</v>
-      </c>
-      <c r="B668" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C668" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D668" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E668" s="1" t="s">
-        <v>2062</v>
-      </c>
-      <c r="F668" s="1">
-        <v>44.94</v>
-      </c>
-      <c r="G668" s="1" t="s">
-        <v>2063</v>
-      </c>
-      <c r="H668" s="1" t="s">
-        <v>2064</v>
-      </c>
-      <c r="I668" s="1" t="s">
-        <v>2065</v>
-      </c>
-      <c r="J668" s="1" t="s">
-        <v>2066</v>
-      </c>
-      <c r="K668" s="1" t="s">
-        <v>2067</v>
-      </c>
-      <c r="L668" s="1" t="s">
-        <v>2068</v>
-      </c>
-      <c r="M668" s="1" t="s">
-        <v>2069</v>
-      </c>
-      <c r="N668" s="1" t="s">
-        <v>2070</v>
-      </c>
-      <c r="O668" s="1" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="669" s="1" customFormat="1" spans="1:15">
-      <c r="A669" t="s">
-        <v>16</v>
-      </c>
-      <c r="B669" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C669" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D669" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E669" s="1" t="s">
-        <v>2072</v>
-      </c>
-      <c r="F669" s="1">
-        <v>46.39</v>
-      </c>
-      <c r="G669" s="1" t="s">
-        <v>2073</v>
-      </c>
-      <c r="H669" s="1" t="s">
-        <v>2064</v>
-      </c>
-      <c r="I669" s="1" t="s">
-        <v>2074</v>
-      </c>
-      <c r="J669" s="1" t="s">
-        <v>2075</v>
-      </c>
-      <c r="K669" s="1" t="s">
-        <v>2067</v>
-      </c>
-      <c r="L669" s="1" t="s">
-        <v>2068</v>
-      </c>
-      <c r="M669" s="1" t="s">
-        <v>2069</v>
-      </c>
-      <c r="N669" s="1" t="s">
-        <v>2070</v>
-      </c>
-      <c r="O669" s="1" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="670" s="1" customFormat="1" spans="1:15">
-      <c r="A670" t="s">
-        <v>16</v>
-      </c>
-      <c r="B670" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C670" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D670" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E670" s="1" t="s">
-        <v>2076</v>
-      </c>
-      <c r="F670" s="1">
-        <v>47.52</v>
-      </c>
-      <c r="G670" s="1" t="s">
-        <v>2077</v>
-      </c>
-      <c r="H670" s="1" t="s">
-        <v>2078</v>
-      </c>
-      <c r="I670" s="1" t="s">
-        <v>2079</v>
-      </c>
-      <c r="J670" s="1"/>
-      <c r="K670" s="1" t="s">
-        <v>2080</v>
-      </c>
-      <c r="L670" s="1" t="s">
-        <v>2081</v>
-      </c>
-      <c r="M670" s="1" t="s">
-        <v>2082</v>
-      </c>
-      <c r="N670" s="1" t="s">
-        <v>2083</v>
-      </c>
-      <c r="O670" s="1" t="s">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="671" s="1" customFormat="1" spans="1:15">
-      <c r="A671" t="s">
-        <v>16</v>
-      </c>
-      <c r="B671" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C671" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D671" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E671" s="1" t="s">
-        <v>2085</v>
-      </c>
-      <c r="F671" s="1">
-        <v>23.8</v>
-      </c>
-      <c r="G671" s="1" t="s">
-        <v>2086</v>
-      </c>
-      <c r="H671" s="1" t="s">
-        <v>2087</v>
-      </c>
-      <c r="I671" s="1" t="s">
-        <v>2088</v>
-      </c>
-      <c r="J671" s="1" t="s">
-        <v>2089</v>
-      </c>
-      <c r="K671" s="1" t="s">
-        <v>2090</v>
-      </c>
-      <c r="L671" s="1" t="s">
-        <v>2091</v>
-      </c>
-      <c r="M671" s="1" t="s">
-        <v>2092</v>
-      </c>
-      <c r="N671" s="1" t="s">
-        <v>2093</v>
-      </c>
-      <c r="O671" s="1" t="s">
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="672" s="1" customFormat="1" spans="1:15">
-      <c r="A672" t="s">
-        <v>16</v>
-      </c>
-      <c r="B672" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C672" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D672" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E672" s="1" t="s">
-        <v>2095</v>
-      </c>
-      <c r="F672" s="1">
-        <v>38.99</v>
-      </c>
-      <c r="G672" s="1" t="s">
-        <v>2096</v>
-      </c>
-      <c r="H672" s="1" t="s">
-        <v>2097</v>
-      </c>
-      <c r="I672" s="1" t="s">
-        <v>2098</v>
-      </c>
-      <c r="J672" s="1" t="s">
-        <v>2099</v>
-      </c>
-      <c r="K672" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L672" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M672" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N672" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O672" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="673" s="1" customFormat="1" spans="1:15">
-      <c r="A673" t="s">
-        <v>16</v>
-      </c>
-      <c r="B673" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C673" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D673" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E673" s="1" t="s">
-        <v>2100</v>
-      </c>
-      <c r="F673" s="1">
-        <v>17.27</v>
-      </c>
-      <c r="G673" s="1" t="s">
-        <v>2101</v>
-      </c>
-      <c r="H673" s="1" t="s">
-        <v>2102</v>
-      </c>
-      <c r="I673" s="1" t="s">
-        <v>2103</v>
-      </c>
-      <c r="J673" s="1" t="s">
-        <v>2104</v>
-      </c>
-      <c r="K673" s="1" t="s">
-        <v>2105</v>
-      </c>
-      <c r="L673" s="1" t="s">
-        <v>2106</v>
-      </c>
-      <c r="M673" s="1" t="s">
-        <v>2107</v>
-      </c>
-      <c r="N673" s="1" t="s">
-        <v>2108</v>
-      </c>
-      <c r="O673" s="1" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="674" s="1" customFormat="1" spans="1:15">
-      <c r="A674" t="s">
-        <v>16</v>
-      </c>
-      <c r="B674" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C674" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D674" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E674" s="1" t="s">
-        <v>2110</v>
-      </c>
-      <c r="F674" s="1">
-        <v>19.58</v>
-      </c>
-      <c r="G674" s="1" t="s">
-        <v>2111</v>
-      </c>
-      <c r="H674" s="1" t="s">
-        <v>2112</v>
-      </c>
-      <c r="I674" s="1" t="s">
-        <v>2113</v>
-      </c>
-      <c r="J674" s="1" t="s">
-        <v>2114</v>
-      </c>
-      <c r="K674" s="1" t="s">
-        <v>2105</v>
-      </c>
-      <c r="L674" s="1" t="s">
-        <v>2106</v>
-      </c>
-      <c r="M674" s="1" t="s">
-        <v>2107</v>
-      </c>
-      <c r="N674" s="1" t="s">
-        <v>2108</v>
-      </c>
-      <c r="O674" s="1" t="s">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="675" s="1" customFormat="1" spans="1:15">
-      <c r="A675" t="s">
-        <v>16</v>
-      </c>
-      <c r="B675" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C675" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D675" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E675" s="1" t="s">
-        <v>2116</v>
-      </c>
-      <c r="F675" s="1">
-        <v>17.8</v>
-      </c>
-      <c r="G675" s="1" t="s">
-        <v>2117</v>
-      </c>
-      <c r="H675" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="I675" s="1" t="s">
-        <v>2118</v>
-      </c>
-      <c r="J675" s="1" t="s">
-        <v>2104</v>
-      </c>
-      <c r="K675" s="1" t="s">
-        <v>2105</v>
-      </c>
-      <c r="L675" s="1" t="s">
-        <v>2106</v>
-      </c>
-      <c r="M675" s="1" t="s">
-        <v>2107</v>
-      </c>
-      <c r="N675" s="1" t="s">
-        <v>2108</v>
-      </c>
-      <c r="O675" s="1" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="676" s="1" customFormat="1" spans="1:15">
-      <c r="A676" t="s">
-        <v>16</v>
-      </c>
-      <c r="B676" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C676" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D676" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E676" s="1" t="s">
-        <v>2119</v>
-      </c>
-      <c r="F676" s="1">
-        <v>21.09</v>
-      </c>
-      <c r="G676" s="1" t="s">
-        <v>2120</v>
-      </c>
-      <c r="H676" s="1" t="s">
-        <v>2121</v>
-      </c>
-      <c r="I676" s="1" t="s">
-        <v>2122</v>
-      </c>
-      <c r="J676" s="1" t="s">
-        <v>2104</v>
-      </c>
-      <c r="K676" s="1" t="s">
-        <v>2105</v>
-      </c>
-      <c r="L676" s="1" t="s">
-        <v>2106</v>
-      </c>
-      <c r="M676" s="1" t="s">
-        <v>2107</v>
-      </c>
-      <c r="N676" s="1" t="s">
-        <v>2108</v>
-      </c>
-      <c r="O676" s="1" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="677" s="1" customFormat="1" spans="1:15">
-      <c r="A677" t="s">
-        <v>16</v>
-      </c>
-      <c r="B677" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C677" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D677" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E677" s="1" t="s">
-        <v>2123</v>
-      </c>
-      <c r="F677" s="1">
-        <v>13.95</v>
-      </c>
-      <c r="G677" s="1" t="s">
-        <v>2124</v>
-      </c>
-      <c r="H677" s="1" t="s">
-        <v>2125</v>
-      </c>
-      <c r="I677" s="1" t="s">
-        <v>2126</v>
-      </c>
-      <c r="J677" s="1" t="s">
-        <v>2127</v>
-      </c>
-      <c r="K677" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L677" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M677" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N677" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O677" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="678" s="1" customFormat="1" spans="1:15">
-      <c r="A678" t="s">
-        <v>16</v>
-      </c>
-      <c r="B678" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C678" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D678" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E678" s="1" t="s">
-        <v>2128</v>
-      </c>
-      <c r="F678" s="1">
-        <v>11.63</v>
-      </c>
-      <c r="G678" s="1" t="s">
-        <v>2129</v>
-      </c>
-      <c r="H678" s="1" t="s">
-        <v>2130</v>
-      </c>
-      <c r="I678" s="1" t="s">
-        <v>2131</v>
-      </c>
-      <c r="J678" s="1" t="s">
-        <v>2127</v>
-      </c>
-      <c r="K678" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L678" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M678" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N678" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O678" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="679" s="1" customFormat="1" spans="1:15">
-      <c r="A679" t="s">
-        <v>16</v>
-      </c>
-      <c r="B679" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C679" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D679" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E679" s="1" t="s">
-        <v>2132</v>
-      </c>
-      <c r="F679" s="1">
-        <v>10.85</v>
-      </c>
-      <c r="G679" s="1" t="s">
-        <v>2133</v>
-      </c>
-      <c r="H679" s="1" t="s">
-        <v>2134</v>
-      </c>
-      <c r="I679" s="1" t="s">
-        <v>2135</v>
-      </c>
-      <c r="J679" s="1" t="s">
-        <v>2136</v>
-      </c>
-      <c r="K679" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L679" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M679" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N679" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O679" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="680" s="1" customFormat="1" spans="1:15">
-      <c r="A680" t="s">
-        <v>16</v>
-      </c>
-      <c r="B680" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C680" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D680" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E680" s="1" t="s">
-        <v>2137</v>
-      </c>
-      <c r="F680" s="1">
-        <v>11.91</v>
-      </c>
-      <c r="G680" s="1" t="s">
-        <v>2138</v>
-      </c>
-      <c r="H680" s="1" t="s">
-        <v>2139</v>
-      </c>
-      <c r="I680" s="1" t="s">
-        <v>2140</v>
-      </c>
-      <c r="J680" s="1" t="s">
-        <v>2141</v>
-      </c>
-      <c r="K680" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L680" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M680" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N680" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O680" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="681" s="1" customFormat="1" spans="1:15">
-      <c r="A681" t="s">
-        <v>16</v>
-      </c>
-      <c r="B681" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C681" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D681" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E681" s="1" t="s">
-        <v>2142</v>
-      </c>
-      <c r="F681" s="1">
-        <v>12.03</v>
-      </c>
-      <c r="G681" s="1" t="s">
-        <v>2143</v>
-      </c>
-      <c r="H681" s="1" t="s">
-        <v>2144</v>
-      </c>
-      <c r="I681" s="1" t="s">
-        <v>2145</v>
-      </c>
-      <c r="J681" s="1" t="s">
-        <v>2146</v>
-      </c>
-      <c r="K681" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L681" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M681" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N681" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O681" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="682" s="1" customFormat="1" spans="1:15">
-      <c r="A682" t="s">
-        <v>16</v>
-      </c>
-      <c r="B682" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C682" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D682" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E682" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="F682" s="1">
-        <v>28.99</v>
-      </c>
-      <c r="G682" s="1" t="s">
-        <v>2147</v>
-      </c>
-      <c r="H682" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="I682" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="J682" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K682" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="L682" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="M682" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="N682" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="O682" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="683" s="1" customFormat="1" spans="1:16">
-      <c r="A683" t="s">
-        <v>16</v>
-      </c>
-      <c r="B683" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C683" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D683" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E683" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F683" s="1">
-        <v>55</v>
-      </c>
-      <c r="G683" s="1" t="s">
-        <v>2148</v>
-      </c>
-      <c r="H683" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I683" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J683" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K683" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="L683" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M683" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N683" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O683" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="P683" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="684" s="1" customFormat="1" spans="1:15">
-      <c r="A684" t="s">
-        <v>16</v>
-      </c>
-      <c r="B684" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C684" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D684" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E684" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="F684" s="1">
-        <v>33.91</v>
-      </c>
-      <c r="G684" s="1" t="s">
-        <v>2149</v>
-      </c>
-      <c r="H684" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="I684" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="J684" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="K684" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="L684" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="M684" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="N684" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="O684" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="685" s="1" customFormat="1" spans="1:15">
-      <c r="A685" t="s">
-        <v>16</v>
-      </c>
-      <c r="B685" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C685" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D685" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E685" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F685" s="1">
-        <v>44.9</v>
-      </c>
-      <c r="G685" s="1" t="s">
-        <v>2150</v>
-      </c>
-      <c r="H685" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I685" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J685" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K685" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L685" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M685" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N685" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O685" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="686" s="1" customFormat="1" spans="1:15">
-      <c r="A686" t="s">
-        <v>16</v>
-      </c>
-      <c r="B686" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C686" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D686" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E686" s="1" t="s">
-        <v>1851</v>
-      </c>
-      <c r="F686" s="1">
-        <v>40.99</v>
-      </c>
-      <c r="G686" s="1" t="s">
-        <v>2151</v>
-      </c>
-      <c r="H686" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="I686" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="J686" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K686" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="L686" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="M686" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="N686" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="O686" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="687" s="1" customFormat="1" spans="1:15">
-      <c r="A687" t="s">
-        <v>16</v>
-      </c>
-      <c r="B687" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C687" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D687" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E687" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F687" s="1">
-        <v>66</v>
-      </c>
-      <c r="G687" s="1" t="s">
-        <v>2152</v>
-      </c>
-      <c r="H687" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="I687" s="1" t="s">
-        <v>1616</v>
-      </c>
-      <c r="J687" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K687" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="L687" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="M687" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="N687" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="O687" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="688" s="1" customFormat="1" spans="1:15">
-      <c r="A688" t="s">
-        <v>16</v>
-      </c>
-      <c r="B688" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C688" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D688" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E688" s="1" t="s">
-        <v>1617</v>
-      </c>
-      <c r="F688" s="1">
-        <v>32.29</v>
-      </c>
-      <c r="G688" s="1" t="s">
-        <v>2153</v>
-      </c>
-      <c r="H688" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="I688" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="J688" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="K688" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="L688" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="M688" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="N688" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="O688" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="689" s="1" customFormat="1" spans="1:15">
-      <c r="A689" t="s">
-        <v>16</v>
-      </c>
-      <c r="B689" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C689" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D689" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E689" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="F689" s="1">
-        <v>28.03</v>
-      </c>
-      <c r="G689" s="1" t="s">
-        <v>2154</v>
-      </c>
-      <c r="H689" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="I689" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="J689" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K689" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="L689" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="M689" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="N689" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="O689" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="690" s="1" customFormat="1" spans="1:15">
-      <c r="A690" t="s">
-        <v>16</v>
-      </c>
-      <c r="B690" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C690" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D690" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E690" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="F690" s="1">
-        <v>37.99</v>
-      </c>
-      <c r="G690" s="1" t="s">
-        <v>2155</v>
-      </c>
-      <c r="H690" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I690" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J690" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K690" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L690" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M690" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N690" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O690" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="691" s="1" customFormat="1" spans="1:15">
-      <c r="A691" t="s">
-        <v>16</v>
-      </c>
-      <c r="B691" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C691" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D691" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E691" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="F691" s="1">
-        <v>46.99</v>
-      </c>
-      <c r="G691" s="1" t="s">
-        <v>2156</v>
-      </c>
-      <c r="H691" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="I691" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="J691" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K691" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L691" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M691" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N691" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O691" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="692" s="1" customFormat="1" spans="1:15">
-      <c r="A692" t="s">
-        <v>16</v>
-      </c>
-      <c r="B692" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C692" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D692" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E692" s="1" t="s">
-        <v>2157</v>
-      </c>
-      <c r="F692" s="1">
-        <v>33.99</v>
-      </c>
-      <c r="G692" s="1" t="s">
-        <v>2158</v>
-      </c>
-      <c r="H692" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I692" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J692" s="1"/>
-      <c r="K692" s="1" t="s">
-        <v>1879</v>
-      </c>
-      <c r="L692" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M692" s="1" t="s">
-        <v>1880</v>
-      </c>
-      <c r="N692" s="1" t="s">
-        <v>1881</v>
-      </c>
-      <c r="O692" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="693" s="1" customFormat="1" spans="1:15">
-      <c r="A693" t="s">
-        <v>16</v>
-      </c>
-      <c r="B693" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C693" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D693" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E693" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="F693" s="1">
-        <v>40.02</v>
-      </c>
-      <c r="G693" s="1" t="s">
-        <v>2159</v>
-      </c>
-      <c r="H693" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I693" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J693" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K693" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L693" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M693" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N693" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O693" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="694" s="1" customFormat="1" spans="1:15">
-      <c r="A694" t="s">
-        <v>16</v>
-      </c>
-      <c r="B694" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C694" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D694" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E694" s="1" t="s">
-        <v>2160</v>
-      </c>
-      <c r="F694" s="1">
-        <v>35.99</v>
-      </c>
-      <c r="G694" s="1" t="s">
-        <v>2161</v>
-      </c>
-      <c r="H694" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I694" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J694" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K694" s="1" t="s">
-        <v>2162</v>
-      </c>
-      <c r="L694" s="1" t="s">
-        <v>2163</v>
-      </c>
-      <c r="M694" s="1" t="s">
-        <v>2164</v>
-      </c>
-      <c r="N694" s="1" t="s">
-        <v>2165</v>
-      </c>
-      <c r="O694" s="1" t="s">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="695" s="1" customFormat="1" spans="1:15">
-      <c r="A695" t="s">
-        <v>16</v>
-      </c>
-      <c r="B695" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C695" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D695" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E695" s="1" t="s">
-        <v>2167</v>
-      </c>
-      <c r="F695" s="1">
-        <v>42.7</v>
-      </c>
-      <c r="G695" s="1" t="s">
-        <v>2168</v>
-      </c>
-      <c r="H695" s="1" t="s">
-        <v>2169</v>
-      </c>
-      <c r="I695" s="1" t="s">
-        <v>2170</v>
-      </c>
-      <c r="J695" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K695" s="1" t="s">
-        <v>2171</v>
-      </c>
-      <c r="L695" s="1" t="s">
-        <v>2172</v>
-      </c>
-      <c r="M695" s="1" t="s">
-        <v>2173</v>
-      </c>
-      <c r="N695" s="1" t="s">
-        <v>2174</v>
-      </c>
-      <c r="O695" s="1" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="696" s="1" customFormat="1" spans="1:15">
-      <c r="A696" t="s">
-        <v>16</v>
-      </c>
-      <c r="B696" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C696" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D696" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E696" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="F696" s="1">
-        <v>46.99</v>
-      </c>
-      <c r="G696" s="1" t="s">
-        <v>2176</v>
-      </c>
-      <c r="H696" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="I696" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="J696" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K696" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="L696" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="M696" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="N696" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="O696" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="697" s="1" customFormat="1" spans="1:15">
-      <c r="A697" t="s">
-        <v>16</v>
-      </c>
-      <c r="B697" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C697" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D697" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E697" s="1" t="s">
-        <v>2177</v>
-      </c>
-      <c r="F697" s="1">
-        <v>34.84</v>
-      </c>
-      <c r="G697" s="1" t="s">
-        <v>2178</v>
-      </c>
-      <c r="H697" s="1" t="s">
-        <v>2179</v>
-      </c>
-      <c r="I697" s="1" t="s">
-        <v>2180</v>
-      </c>
-      <c r="J697" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K697" s="1" t="s">
-        <v>2181</v>
-      </c>
-      <c r="L697" s="1" t="s">
-        <v>2182</v>
-      </c>
-      <c r="M697" s="1" t="s">
-        <v>1549</v>
-      </c>
-      <c r="N697" s="1" t="s">
-        <v>1550</v>
-      </c>
-      <c r="O697" s="1" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="698" s="1" customFormat="1" spans="1:15">
-      <c r="A698" t="s">
-        <v>16</v>
-      </c>
-      <c r="B698" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C698" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D698" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E698" s="1" t="s">
-        <v>2183</v>
-      </c>
-      <c r="F698" s="1">
-        <v>43.33</v>
-      </c>
-      <c r="G698" s="1" t="s">
-        <v>2184</v>
-      </c>
-      <c r="H698" s="1" t="s">
-        <v>2185</v>
-      </c>
-      <c r="I698" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="J698" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="K698" s="1" t="s">
-        <v>2186</v>
-      </c>
-      <c r="L698" s="1" t="s">
-        <v>2187</v>
-      </c>
-      <c r="M698" s="1" t="s">
-        <v>2188</v>
-      </c>
-      <c r="N698" s="1" t="s">
-        <v>2189</v>
-      </c>
-      <c r="O698" s="1" t="s">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="699" s="1" customFormat="1" spans="1:15">
-      <c r="A699" t="s">
-        <v>16</v>
-      </c>
-      <c r="B699" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C699" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D699" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E699" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F699" s="1">
-        <v>30.39</v>
-      </c>
-      <c r="G699" s="1" t="s">
-        <v>2191</v>
-      </c>
-      <c r="H699" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I699" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J699" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K699" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L699" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M699" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N699" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O699" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="700" s="1" customFormat="1" spans="1:15">
-      <c r="A700" t="s">
-        <v>16</v>
-      </c>
-      <c r="B700" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C700" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D700" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E700" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="F700" s="1">
-        <v>36.99</v>
-      </c>
-      <c r="G700" s="1" t="s">
-        <v>2192</v>
-      </c>
-      <c r="H700" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="I700" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J700" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K700" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L700" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M700" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N700" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O700" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="701" s="1" customFormat="1" spans="1:15">
-      <c r="A701" t="s">
-        <v>16</v>
-      </c>
-      <c r="B701" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C701" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D701" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E701" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="F701" s="1">
-        <v>21.18</v>
-      </c>
-      <c r="G701" s="1" t="s">
-        <v>2193</v>
-      </c>
-      <c r="H701" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I701" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J701" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K701" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L701" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M701" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N701" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="O701" s="1" t="s">
-        <v>37</v>
+      <c r="P701" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>